--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,33 +85,25 @@
   </si>
   <si>
     <t>A profile on the Observation resource for MHV PHR exposing Vital-Signs using FHIR API.
-- The mock example maps best to VIA_v4.0.7_uat.wsdl. 
-  - BLOOD PRESSURE (SYSTOLIC BLOOD PRESSURE, DIASTOLIC BLOOD PRESSURE) = 26 (26, 26)
-  - HEIGHT = 12
-  - WEIGHT = 20
-  - PULSE = 20
-  - PAIN = 16
-  - RESPIRATION = 9
-  - TEMPERATURE = 18
 - Should be based on US-Core for Vital-Signs Observation Resource
 - status of `final`
 - category code of `vital-signs`
-- code should be LOINC if available, but sample code is just strings
+- code should be LOINC if available
+  - [Concept Map from VitalSignTO.type.name to LOINC code](ConceptMap-ObservationTypeTOVsLoincCode.html)
+  - note some of these codes are high confidence, many are not
 - patient
 - Not preserving the VitalSignTO.low and .high as they are referenceRange
 - Blood Pressure in the mock examples is triple recorded: First with both values, Second with just Systolic, Third with Diastolic. There only seems to be a nearness relationship. Note that only the first one has a type.id. So I recommend we use only the first, and split the values out. Note no pulse is recorded.
-- mock example didn't include, so I don't map
+  - Blood Pressure is recorded with `.component` rather than `.value[x]`
+- some examples had units, so I used `.valueQuantity`
+  - all unknown value types I record using `.valueString`
+  - some units are not proper UCUM, so I had to fix `lb` and `in` - [Utility UCUM](utility.html)
+- mock example didn't include these elements, so I don't map
   - type.shortName, type.dataId, type.dataName, or type.dataType
   - value2
-  - comments
-  - recorder
-  - observer
   - facility
   - location
-  - qualifiers, qualifierItems
-- FETAL HEART TONES, HEARING, VISION CORRECTED, VISION UNCORRECTED - This is in theory in the VitalSignTO data, but I have no example and no clear mapping to loinc
-  - for these and anything else that does not match known map, will simply map strings with no attempt at codes or units
-TODO:</t>
+  - qualifiers, qualifierItems</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -692,6 +684,10 @@
     <t>Identifier.system</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
+  </si>
+  <si>
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
@@ -1286,8 +1282,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Often just a dateTime for Vital Signs</t>
@@ -1306,6 +1302,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">vs-1
 </t>
   </si>
@@ -1330,10 +1329,6 @@
   </si>
   <si>
     <t>effectiveDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>VitalSignTO.timestamp</t>
@@ -4483,7 +4478,7 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>83</v>
@@ -4492,10 +4487,10 @@
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4509,10 +4504,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4538,13 +4533,13 @@
         <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4558,7 +4553,7 @@
         <v>83</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>83</v>
@@ -4594,7 +4589,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4615,10 +4610,10 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4632,10 +4627,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4658,13 +4653,13 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4715,7 +4710,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4736,10 +4731,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4753,10 +4748,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4779,16 +4774,16 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4838,7 +4833,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4859,10 +4854,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4876,21 +4871,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4902,17 +4897,17 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4961,7 +4956,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4976,16 +4971,16 @@
         <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4999,21 +4994,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -5025,16 +5020,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5084,7 +5079,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5099,16 +5094,16 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5122,10 +5117,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5151,16 +5146,16 @@
         <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -5170,7 +5165,7 @@
         <v>83</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>83</v>
@@ -5189,7 +5184,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>83</v>
@@ -5207,7 +5202,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>93</v>
@@ -5222,33 +5217,33 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5274,16 +5269,16 @@
         <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5311,16 +5306,16 @@
         <v>117</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -5330,7 +5325,7 @@
         <v>156</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5354,27 +5349,27 @@
         <v>83</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>83</v>
@@ -5399,16 +5394,16 @@
         <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5436,10 +5431,10 @@
         <v>117</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -5457,7 +5452,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5481,10 +5476,10 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5495,10 +5490,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5616,10 +5611,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5739,10 +5734,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5765,19 +5760,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5826,7 +5821,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5847,10 +5842,10 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5864,10 +5859,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5985,10 +5980,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6108,10 +6103,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6137,23 +6132,23 @@
         <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>83</v>
@@ -6195,7 +6190,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6216,10 +6211,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -6233,10 +6228,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6262,13 +6257,13 @@
         <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6318,7 +6313,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6339,10 +6334,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6356,10 +6351,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6385,21 +6380,21 @@
         <v>113</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>83</v>
@@ -6441,7 +6436,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6462,10 +6457,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6479,10 +6474,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6508,14 +6503,14 @@
         <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6564,7 +6559,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6585,10 +6580,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6602,10 +6597,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6628,19 +6623,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6689,7 +6684,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6710,10 +6705,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6727,10 +6722,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6756,16 +6751,16 @@
         <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6814,7 +6809,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6835,10 +6830,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6852,14 +6847,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6881,16 +6876,16 @@
         <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6918,10 +6913,10 @@
         <v>196</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6939,7 +6934,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>93</v>
@@ -6954,33 +6949,33 @@
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7098,10 +7093,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7221,10 +7216,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7247,19 +7242,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7308,7 +7303,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7329,10 +7324,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7346,10 +7341,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7375,16 +7370,16 @@
         <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7433,7 +7428,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7454,10 +7449,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7471,10 +7466,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7497,19 +7492,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7558,7 +7553,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7573,33 +7568,33 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7610,7 +7605,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7622,16 +7617,16 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7681,7 +7676,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7702,13 +7697,13 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7719,21 +7714,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7745,19 +7740,19 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7806,7 +7801,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7821,19 +7816,19 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7844,14 +7839,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7870,19 +7865,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7919,17 +7914,17 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7938,25 +7933,25 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7967,20 +7962,20 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>93</v>
@@ -7995,19 +7990,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -8056,7 +8051,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -8065,39 +8060,39 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8120,16 +8115,16 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8179,7 +8174,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8200,13 +8195,13 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -8217,10 +8212,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8234,7 +8229,7 @@
         <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
@@ -8243,17 +8238,17 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8302,7 +8297,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8317,33 +8312,33 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8366,19 +8361,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8406,10 +8401,10 @@
         <v>196</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8427,7 +8422,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8436,7 +8431,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -8445,30 +8440,30 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8479,7 +8474,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>94</v>
@@ -8494,16 +8489,16 @@
         <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8531,10 +8526,10 @@
         <v>196</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8552,7 +8547,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8561,7 +8556,7 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>105</v>
@@ -8576,7 +8571,7 @@
         <v>136</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8590,21 +8585,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8619,16 +8614,16 @@
         <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8656,10 +8651,10 @@
         <v>196</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -8677,7 +8672,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8695,19 +8690,19 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>83</v>
@@ -8715,10 +8710,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8732,7 +8727,7 @@
         <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>83</v>
@@ -8741,19 +8736,19 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8802,7 +8797,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8823,10 +8818,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8840,10 +8835,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8961,10 +8956,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9084,10 +9079,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9110,16 +9105,16 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9169,7 +9164,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9193,7 +9188,7 @@
         <v>136</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -9207,10 +9202,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9233,13 +9228,13 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9290,7 +9285,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9314,7 +9309,7 @@
         <v>136</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9328,10 +9323,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9354,13 +9349,13 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9411,7 +9406,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>93</v>
@@ -9435,7 +9430,7 @@
         <v>136</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -9444,15 +9439,15 @@
         <v>83</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9463,7 +9458,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -9478,13 +9473,13 @@
         <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9510,13 +9505,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9534,7 +9529,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9552,19 +9547,19 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>83</v>
@@ -9572,10 +9567,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9586,7 +9581,7 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -9601,16 +9596,16 @@
         <v>191</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9635,13 +9630,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9659,7 +9654,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9680,10 +9675,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9697,10 +9692,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9711,7 +9706,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9723,16 +9718,16 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9782,7 +9777,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9800,19 +9795,19 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>83</v>
@@ -9820,10 +9815,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9834,7 +9829,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -9846,16 +9841,16 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9905,7 +9900,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9923,19 +9918,19 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>83</v>
@@ -9943,10 +9938,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9957,7 +9952,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9969,19 +9964,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -10030,7 +10025,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10042,7 +10037,7 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -10051,10 +10046,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -10068,10 +10063,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10189,10 +10184,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10312,14 +10307,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10341,10 +10336,10 @@
         <v>139</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>142</v>
@@ -10399,7 +10394,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10437,10 +10432,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10463,13 +10458,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10520,7 +10515,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10529,7 +10524,7 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>105</v>
@@ -10541,10 +10536,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10558,10 +10553,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10584,13 +10579,13 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10641,7 +10636,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10650,7 +10645,7 @@
         <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10662,10 +10657,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10679,10 +10674,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10708,16 +10703,16 @@
         <v>191</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10745,10 +10740,10 @@
         <v>117</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10766,7 +10761,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10784,13 +10779,13 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10804,10 +10799,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10833,16 +10828,16 @@
         <v>191</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10867,13 +10862,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10891,7 +10886,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10909,13 +10904,13 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10929,10 +10924,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10955,17 +10950,17 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -11014,7 +11009,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -11038,7 +11033,7 @@
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11052,10 +11047,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11081,10 +11076,10 @@
         <v>166</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11135,7 +11130,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11156,10 +11151,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11173,10 +11168,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11187,7 +11182,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -11199,16 +11194,16 @@
         <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11258,7 +11253,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11279,10 +11274,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11296,10 +11291,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11310,7 +11305,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
@@ -11322,16 +11317,16 @@
         <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11381,7 +11376,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11402,10 +11397,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11419,10 +11414,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11445,19 +11440,19 @@
         <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11506,7 +11501,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11518,7 +11513,7 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11527,10 +11522,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11544,10 +11539,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11665,10 +11660,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11788,14 +11783,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11817,10 +11812,10 @@
         <v>139</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>142</v>
@@ -11875,7 +11870,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11913,10 +11908,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11942,16 +11937,16 @@
         <v>191</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11979,10 +11974,10 @@
         <v>196</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -12000,7 +11995,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>93</v>
@@ -12018,16 +12013,16 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>83</v>
@@ -12038,10 +12033,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12064,19 +12059,19 @@
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -12104,10 +12099,10 @@
         <v>196</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -12125,7 +12120,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -12134,7 +12129,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12143,19 +12138,19 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AQ79" t="s" s="2">
         <v>83</v>
@@ -12163,10 +12158,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12192,16 +12187,16 @@
         <v>191</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12229,10 +12224,10 @@
         <v>196</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -12250,7 +12245,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12259,7 +12254,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -12274,7 +12269,7 @@
         <v>136</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12288,14 +12283,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12317,16 +12312,16 @@
         <v>191</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12354,10 +12349,10 @@
         <v>196</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12375,7 +12370,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12393,19 +12388,19 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AQ81" t="s" s="2">
         <v>83</v>
@@ -12413,10 +12408,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12442,16 +12437,16 @@
         <v>84</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12500,7 +12495,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12521,10 +12516,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,6 +85,7 @@
   </si>
   <si>
     <t>A profile on the Observation resource for MHV PHR exposing Vital-Signs using FHIR API.
+- The mock example maps best to VIA_v4.0.7_uat.wsdl.
 - Should be based on US-Core for Vital-Signs Observation Resource
 - status of `final`
 - category code of `vital-signs`
@@ -93,17 +94,13 @@
   - note some of these codes are high confidence, many are not
 - patient
 - Not preserving the VitalSignTO.low and .high as they are referenceRange
-- Blood Pressure in the mock examples is triple recorded: First with both values, Second with just Systolic, Third with Diastolic. There only seems to be a nearness relationship. Note that only the first one has a type.id. So I recommend we use only the first, and split the values out. Note no pulse is recorded.
-  - Blood Pressure is recorded with `.component` rather than `.value[x]`
-- some examples had units, so I used `.valueQuantity`
-  - all unknown value types I record using `.valueString`
-  - some units are not proper UCUM, so I had to fix `lb` and `in` - [Utility UCUM](utility.html)
-- mock example didn't include these elements, so I don't map
-  - type.shortName, type.dataId, type.dataName, or type.dataType
-  - value2
-  - facility
-  - location
-  - qualifiers, qualifierItems</t>
+- value
+  - Blood Pressure - no `.value[x]`, but has `.component`
+  - Pain - `.valueInteger`
+  - Those with units use `.valueQuantity` else `.valueString`
+- value units
+  - There is a units within the data, and it seems mostly to be the proper code from the proper code system UCUM
+  - some units are not proper formal UCUM, so I had to fix `lb` and `in` - [Utility UCUM](utility.html)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1943,6 +1940,9 @@
   </si>
   <si>
     <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>For BP is used for value1</t>
   </si>
   <si>
     <t>Observation.component.id</t>
@@ -11428,7 +11428,7 @@
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>94</v>
@@ -11534,15 +11534,15 @@
         <v>83</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>83</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11660,10 +11660,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11783,10 +11783,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11908,10 +11908,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11937,16 +11937,16 @@
         <v>191</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11995,7 +11995,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>93</v>
@@ -12013,7 +12013,7 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>364</v>
@@ -12033,10 +12033,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12062,13 +12062,13 @@
         <v>438</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>442</v>
@@ -12120,7 +12120,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -12129,7 +12129,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12138,7 +12138,7 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>447</v>
@@ -12158,10 +12158,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12187,13 +12187,13 @@
         <v>191</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>455</v>
@@ -12245,7 +12245,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12254,7 +12254,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -12283,10 +12283,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12370,7 +12370,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12408,10 +12408,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12434,13 +12434,13 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>543</v>
@@ -12495,7 +12495,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,23 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation resource for MHV PHR exposing Vital-Signs using FHIR API.
-- The mock example maps best to VIA_v4.0.7_uat.wsdl.
-- Should be based on US-Core for Vital-Signs Observation Resource
-- status of `final`
-- category code of `vital-signs`
-- code should be LOINC if available
-  - [Concept Map from VitalSignTO.type.name to LOINC code](ConceptMap-ObservationTypeTOVsLoincCode.html)
-  - note some of these codes are high confidence, many are not
-- patient
-- Not preserving the VitalSignTO.low and .high as they are referenceRange
-- value
-  - Blood Pressure - no `.value[x]`, but has `.component`
-  - Pain - `.valueInteger`
-  - Those with units use `.valueQuantity` else `.valueString`
-- value units
-  - There is a units within the data, and it seems mostly to be the proper code from the proper code system UCUM
-  - some units are not proper formal UCUM, so I had to fix `lb` and `in` - [Utility UCUM](utility.html)</t>
+    <t>A profile on the Observation resource for MHV PHR exposing Vital-Signs using FHIR API.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -7842,7 +7826,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1239,7 +1239,7 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>VitalSignTO.recorder and VitalSignTO.observer</t>
+    <t>contained VitalSignTO.recorder and VitalSignTO.observer</t>
   </si>
   <si>
     <t>Observation.value[x]</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.vitals</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.vitals</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2352,19 +2356,19 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>40</v>
@@ -2373,15 +2377,15 @@
         <v>40</v>
       </c>
       <c r="AQ1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2392,7 +2396,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2401,19 +2405,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2463,13 +2467,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2501,10 +2505,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2515,7 +2519,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2524,16 +2528,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2584,19 +2588,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2622,10 +2626,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2636,28 +2640,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2707,19 +2711,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2745,10 +2749,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2759,7 +2763,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2771,16 +2775,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2806,13 +2810,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2830,19 +2834,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2868,21 +2872,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2894,16 +2898,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2953,19 +2957,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2977,7 +2981,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>40</v>
@@ -2991,14 +2995,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3017,16 +3021,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3076,7 +3080,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3100,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>40</v>
@@ -3114,14 +3118,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3140,16 +3144,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3199,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3211,7 +3215,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -3223,7 +3227,7 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>40</v>
@@ -3237,14 +3241,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3257,25 +3261,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -3324,7 +3328,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3336,7 +3340,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3348,7 +3352,7 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>40</v>
@@ -3362,10 +3366,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3373,7 +3377,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -3385,20 +3389,20 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3435,17 +3439,17 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3457,46 +3461,46 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -3508,20 +3512,20 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3570,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3582,22 +3586,22 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>40</v>
@@ -3608,10 +3612,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3622,7 +3626,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3634,13 +3638,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3691,13 +3695,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
@@ -3715,7 +3719,7 @@
         <v>40</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>40</v>
@@ -3729,14 +3733,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3755,16 +3759,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3802,19 +3806,19 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3826,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3838,7 +3842,7 @@
         <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>40</v>
@@ -3852,10 +3856,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3863,34 +3867,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -3900,7 +3904,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -3915,13 +3919,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -3939,19 +3943,19 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -3960,10 +3964,10 @@
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
@@ -3977,10 +3981,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3991,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -4000,22 +4004,22 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -4040,13 +4044,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -4064,19 +4068,19 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -4085,10 +4089,10 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>40</v>
@@ -4102,10 +4106,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4116,7 +4120,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -4125,22 +4129,22 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -4153,7 +4157,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -4189,19 +4193,19 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -4210,10 +4214,10 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>40</v>
@@ -4227,10 +4231,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4241,7 +4245,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -4250,19 +4254,19 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4276,7 +4280,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -4312,19 +4316,19 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -4333,10 +4337,10 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4350,10 +4354,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4364,7 +4368,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4373,16 +4377,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4433,19 +4437,19 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -4454,10 +4458,10 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4471,10 +4475,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4485,7 +4489,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -4494,19 +4498,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4556,19 +4560,19 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -4577,10 +4581,10 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4594,14 +4598,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4617,20 +4621,20 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
@@ -4679,7 +4683,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4691,19 +4695,19 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4717,14 +4721,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4740,19 +4744,19 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4802,7 +4806,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4814,19 +4818,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -4840,10 +4844,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4851,34 +4855,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4888,7 +4892,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -4903,11 +4907,11 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
@@ -4925,48 +4929,48 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4974,13 +4978,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
@@ -4989,19 +4993,19 @@
         <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -5026,29 +5030,29 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5060,7 +5064,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -5072,40 +5076,40 @@
         <v>40</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
@@ -5114,19 +5118,19 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -5151,13 +5155,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -5175,7 +5179,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -5187,7 +5191,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -5199,10 +5203,10 @@
         <v>40</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>40</v>
@@ -5213,10 +5217,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5227,7 +5231,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -5239,13 +5243,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5296,13 +5300,13 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -5320,7 +5324,7 @@
         <v>40</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>40</v>
@@ -5334,14 +5338,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5360,16 +5364,16 @@
         <v>40</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5407,19 +5411,19 @@
         <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5431,7 +5435,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -5443,7 +5447,7 @@
         <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -5457,10 +5461,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5468,34 +5472,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5544,7 +5548,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5556,7 +5560,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -5565,10 +5569,10 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -5582,10 +5586,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5596,7 +5600,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -5608,13 +5612,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5665,13 +5669,13 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
@@ -5689,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5703,14 +5707,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5729,16 +5733,16 @@
         <v>40</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5776,19 +5780,19 @@
         <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5800,7 +5804,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -5812,7 +5816,7 @@
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -5826,10 +5830,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5837,41 +5841,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>40</v>
@@ -5913,19 +5917,19 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -5934,10 +5938,10 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>40</v>
@@ -5951,10 +5955,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5965,7 +5969,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -5974,19 +5978,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6036,19 +6040,19 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -6057,10 +6061,10 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -6074,10 +6078,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6085,39 +6089,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>40</v>
@@ -6159,19 +6163,19 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -6180,10 +6184,10 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>40</v>
@@ -6197,10 +6201,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6211,7 +6215,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -6220,20 +6224,20 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6282,19 +6286,19 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -6303,10 +6307,10 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>40</v>
@@ -6320,10 +6324,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6334,7 +6338,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -6343,22 +6347,22 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -6407,19 +6411,19 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -6428,10 +6432,10 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>40</v>
@@ -6445,10 +6449,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6459,7 +6463,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6468,22 +6472,22 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6532,19 +6536,19 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -6553,10 +6557,10 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -6570,45 +6574,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6633,13 +6637,13 @@
         <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>40</v>
@@ -6657,48 +6661,48 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6709,7 +6713,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6721,13 +6725,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6778,13 +6782,13 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
@@ -6802,7 +6806,7 @@
         <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -6816,14 +6820,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6842,16 +6846,16 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6889,19 +6893,19 @@
         <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6913,7 +6917,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -6925,7 +6929,7 @@
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -6939,10 +6943,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6956,28 +6960,28 @@
         <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -7026,7 +7030,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -7038,7 +7042,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -7047,10 +7051,10 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -7064,10 +7068,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7078,31 +7082,31 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -7151,19 +7155,19 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -7172,10 +7176,10 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
@@ -7189,10 +7193,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7200,34 +7204,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7276,48 +7280,48 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7337,19 +7341,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7399,7 +7403,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7411,7 +7415,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -7420,13 +7424,13 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>40</v>
@@ -7437,14 +7441,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7460,22 +7464,22 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7524,34 +7528,34 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>40</v>
@@ -7562,45 +7566,45 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7637,44 +7641,44 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>40</v>
@@ -7685,47 +7689,47 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -7774,48 +7778,48 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7835,19 +7839,19 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7897,19 +7901,19 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -7918,13 +7922,13 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>40</v>
@@ -7935,10 +7939,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7952,26 +7956,26 @@
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -8020,7 +8024,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8032,36 +8036,36 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8072,31 +8076,31 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8121,13 +8125,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8145,48 +8149,48 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8200,7 +8204,7 @@
         <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>40</v>
@@ -8209,19 +8213,19 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -8246,13 +8250,13 @@
         <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
@@ -8270,19 +8274,19 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -8291,10 +8295,10 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8308,14 +8312,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8334,19 +8338,19 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -8371,13 +8375,13 @@
         <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8395,7 +8399,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8407,25 +8411,25 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>40</v>
@@ -8433,10 +8437,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8450,7 +8454,7 @@
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
@@ -8459,19 +8463,19 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8520,7 +8524,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8532,7 +8536,7 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8541,10 +8545,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8558,10 +8562,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8572,7 +8576,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -8584,13 +8588,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8641,13 +8645,13 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
@@ -8665,7 +8669,7 @@
         <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8679,14 +8683,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8705,16 +8709,16 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8752,19 +8756,19 @@
         <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8776,7 +8780,7 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -8788,7 +8792,7 @@
         <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8802,10 +8806,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8816,7 +8820,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -8825,19 +8829,19 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8887,19 +8891,19 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -8908,10 +8912,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -8925,10 +8929,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8939,7 +8943,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -8948,16 +8952,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9008,19 +9012,19 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -9029,10 +9033,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9046,10 +9050,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9057,10 +9061,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -9069,16 +9073,16 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9129,19 +9133,19 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -9150,10 +9154,10 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9162,15 +9166,15 @@
         <v>40</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9193,16 +9197,16 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9228,13 +9232,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9252,37 +9256,37 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9290,10 +9294,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9316,19 +9320,19 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9353,13 +9357,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9377,19 +9381,19 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -9398,10 +9402,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9415,10 +9419,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9441,16 +9445,16 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9500,37 +9504,37 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>40</v>
@@ -9538,10 +9542,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9564,16 +9568,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9623,37 +9627,37 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>40</v>
@@ -9661,10 +9665,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9687,19 +9691,19 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9748,7 +9752,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9760,7 +9764,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -9769,10 +9773,10 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -9786,10 +9790,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9800,7 +9804,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -9812,13 +9816,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9869,13 +9873,13 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
@@ -9893,7 +9897,7 @@
         <v>40</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -9907,14 +9911,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9933,16 +9937,16 @@
         <v>40</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9992,7 +9996,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -10004,7 +10008,7 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -10016,7 +10020,7 @@
         <v>40</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -10030,14 +10034,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10050,25 +10054,25 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>40</v>
@@ -10117,7 +10121,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10129,7 +10133,7 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
@@ -10141,7 +10145,7 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -10155,10 +10159,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10169,7 +10173,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -10181,13 +10185,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10238,19 +10242,19 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
@@ -10259,10 +10263,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10276,10 +10280,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10290,7 +10294,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -10302,13 +10306,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10359,19 +10363,19 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
@@ -10380,10 +10384,10 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10397,10 +10401,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10411,7 +10415,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -10423,19 +10427,19 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
@@ -10460,13 +10464,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10484,31 +10488,31 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
@@ -10522,10 +10526,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10548,19 +10552,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10585,13 +10589,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10609,7 +10613,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10621,19 +10625,19 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -10647,10 +10651,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10661,7 +10665,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -10673,17 +10677,17 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10732,19 +10736,19 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>40</v>
@@ -10756,7 +10760,7 @@
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -10770,10 +10774,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10784,7 +10788,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -10796,13 +10800,13 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10853,19 +10857,19 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -10874,10 +10878,10 @@
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
@@ -10891,10 +10895,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10914,19 +10918,19 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10976,7 +10980,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10988,7 +10992,7 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -10997,10 +11001,10 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -11014,10 +11018,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11037,19 +11041,19 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11099,7 +11103,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11111,7 +11115,7 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>40</v>
@@ -11120,10 +11124,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11137,10 +11141,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11154,28 +11158,28 @@
         <v>38</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -11224,7 +11228,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11236,7 +11240,7 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -11245,10 +11249,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11257,15 +11261,15 @@
         <v>40</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11276,7 +11280,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -11288,13 +11292,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11345,13 +11349,13 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
@@ -11369,7 +11373,7 @@
         <v>40</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11383,14 +11387,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11409,16 +11413,16 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11468,7 +11472,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11480,7 +11484,7 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>40</v>
@@ -11492,7 +11496,7 @@
         <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11506,14 +11510,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11526,25 +11530,25 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11593,7 +11597,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11605,7 +11609,7 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -11617,7 +11621,7 @@
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11631,10 +11635,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11642,34 +11646,34 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11694,13 +11698,13 @@
         <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>40</v>
@@ -11718,34 +11722,34 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>40</v>
@@ -11756,10 +11760,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11770,31 +11774,31 @@
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11819,13 +11823,13 @@
         <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -11843,37 +11847,37 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>40</v>
@@ -11881,10 +11885,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11895,10 +11899,10 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>40</v>
@@ -11907,19 +11911,19 @@
         <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11944,13 +11948,13 @@
         <v>40</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
@@ -11968,19 +11972,19 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -11989,10 +11993,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12006,14 +12010,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12032,19 +12036,19 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12069,13 +12073,13 @@
         <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
@@ -12093,7 +12097,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12105,25 +12109,25 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>40</v>
@@ -12131,10 +12135,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12160,16 +12164,16 @@
         <v>40</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -12218,7 +12222,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -12230,7 +12234,7 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>40</v>
@@ -12239,10 +12243,10 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="597">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1028,19 +1028,22 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
     <t>VitalSignTO.type.name convert to LOINC using ObservationTypeTOVsLoincCode</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>VitalSignTO.type.name</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -6694,15 +6697,15 @@
         <v>325</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6820,10 +6823,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6943,10 +6946,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7063,7 +7066,7 @@
         <v>40</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -7188,15 +7191,15 @@
         <v>40</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7219,19 +7222,19 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7280,7 +7283,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7295,33 +7298,33 @@
         <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7344,16 +7347,16 @@
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7403,7 +7406,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7427,10 +7430,10 @@
         <v>322</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>40</v>
@@ -7441,14 +7444,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7467,19 +7470,19 @@
         <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7528,7 +7531,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7543,19 +7546,19 @@
         <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>40</v>
@@ -7566,14 +7569,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7592,19 +7595,19 @@
         <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7641,17 +7644,17 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7660,25 +7663,25 @@
         <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>40</v>
@@ -7689,16 +7692,16 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7717,19 +7720,19 @@
         <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -7778,7 +7781,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7787,39 +7790,39 @@
         <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7842,16 +7845,16 @@
         <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7901,7 +7904,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7922,13 +7925,13 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>40</v>
@@ -7939,10 +7942,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7965,17 +7968,17 @@
         <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -8024,7 +8027,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8039,33 +8042,33 @@
         <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8088,19 +8091,19 @@
         <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8128,10 +8131,10 @@
         <v>154</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8149,7 +8152,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8158,7 +8161,7 @@
         <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>63</v>
@@ -8167,30 +8170,30 @@
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8216,16 +8219,16 @@
         <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -8253,10 +8256,10 @@
         <v>154</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
@@ -8274,7 +8277,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8283,7 +8286,7 @@
         <v>51</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>63</v>
@@ -8298,7 +8301,7 @@
         <v>94</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8312,14 +8315,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8341,16 +8344,16 @@
         <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -8378,10 +8381,10 @@
         <v>154</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8399,7 +8402,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8417,19 +8420,19 @@
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>40</v>
@@ -8437,10 +8440,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8463,19 +8466,19 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8524,7 +8527,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8545,10 +8548,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8562,10 +8565,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8683,10 +8686,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8806,10 +8809,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8832,16 +8835,16 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8891,7 +8894,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8915,7 +8918,7 @@
         <v>94</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -8929,10 +8932,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8955,13 +8958,13 @@
         <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9012,7 +9015,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9036,7 +9039,7 @@
         <v>94</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9050,10 +9053,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9076,13 +9079,13 @@
         <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9133,7 +9136,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>51</v>
@@ -9157,7 +9160,7 @@
         <v>94</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9166,15 +9169,15 @@
         <v>40</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9200,13 +9203,13 @@
         <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9232,13 +9235,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9256,7 +9259,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9274,19 +9277,19 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9294,10 +9297,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9323,16 +9326,16 @@
         <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9357,13 +9360,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9381,7 +9384,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9402,10 +9405,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9419,10 +9422,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9445,16 +9448,16 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9504,7 +9507,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9522,19 +9525,19 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>40</v>
@@ -9542,10 +9545,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9568,16 +9571,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9627,7 +9630,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9645,19 +9648,19 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>40</v>
@@ -9665,10 +9668,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9691,19 +9694,19 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9752,7 +9755,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9764,7 +9767,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -9773,10 +9776,10 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -9790,10 +9793,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9911,10 +9914,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10034,14 +10037,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10063,10 +10066,10 @@
         <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>100</v>
@@ -10121,7 +10124,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10159,10 +10162,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10185,13 +10188,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10242,7 +10245,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10251,7 +10254,7 @@
         <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>63</v>
@@ -10263,10 +10266,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10280,10 +10283,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10306,13 +10309,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10363,7 +10366,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10372,7 +10375,7 @@
         <v>51</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>63</v>
@@ -10384,10 +10387,10 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10401,10 +10404,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10430,16 +10433,16 @@
         <v>149</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
@@ -10467,10 +10470,10 @@
         <v>75</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10488,7 +10491,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10506,13 +10509,13 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
@@ -10526,10 +10529,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10555,16 +10558,16 @@
         <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10589,13 +10592,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10613,7 +10616,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10631,13 +10634,13 @@
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -10651,10 +10654,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10677,17 +10680,17 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10736,7 +10739,7 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10760,7 +10763,7 @@
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -10774,10 +10777,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10803,10 +10806,10 @@
         <v>124</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10857,7 +10860,7 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10878,10 +10881,10 @@
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
@@ -10895,10 +10898,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10921,16 +10924,16 @@
         <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10980,7 +10983,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11001,10 +11004,10 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -11018,10 +11021,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11044,16 +11047,16 @@
         <v>52</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11103,7 +11106,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11124,10 +11127,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11141,10 +11144,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11167,19 +11170,19 @@
         <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -11228,7 +11231,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11240,7 +11243,7 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -11249,10 +11252,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11261,15 +11264,15 @@
         <v>40</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11387,10 +11390,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11510,14 +11513,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11539,10 +11542,10 @@
         <v>97</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>100</v>
@@ -11597,7 +11600,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11635,10 +11638,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11664,16 +11667,16 @@
         <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11722,7 +11725,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>51</v>
@@ -11740,7 +11743,7 @@
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>322</v>
@@ -11760,10 +11763,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11786,19 +11789,19 @@
         <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11826,10 +11829,10 @@
         <v>154</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -11847,7 +11850,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11856,7 +11859,7 @@
         <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>63</v>
@@ -11865,19 +11868,19 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>40</v>
@@ -11885,10 +11888,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11914,16 +11917,16 @@
         <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11951,10 +11954,10 @@
         <v>154</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
@@ -11972,7 +11975,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11981,7 +11984,7 @@
         <v>51</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>63</v>
@@ -11996,7 +11999,7 @@
         <v>94</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12010,14 +12013,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12039,16 +12042,16 @@
         <v>149</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12076,10 +12079,10 @@
         <v>154</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
@@ -12097,7 +12100,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12115,19 +12118,19 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>40</v>
@@ -12135,10 +12138,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12164,16 +12167,16 @@
         <v>40</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -12222,7 +12225,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -12243,10 +12246,10 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -556,7 +556,7 @@
     <t>Observation.identifier.value</t>
   </si>
   <si>
-    <t>`VitalSignTO` | `.` | {VitalSignTO.id}</t>
+    <t>`VitalSignTO` | `.` | {VitalSignTO.type.id}</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -1221,7 +1221,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1246,7 +1246,178 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>contained VitalSignTO.recorder and VitalSignTO.observer</t>
+    <t>contained VitalSignTO.observer</t>
+  </si>
+  <si>
+    <t>Observation.performer.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Alternative reference (target type is wrong)</t>
+  </si>
+  <si>
+    <t>Used when the target of the reference has a type that is not allowed by the definition of the element. In general, this should only arise when wrangling between versions using cross-version extensions.</t>
+  </si>
+  <si>
+    <t>Given that a reference SHALL have a display or reference, using this extension implies that there's a display present.</t>
+  </si>
+  <si>
+    <t>Organization(VitalSignTO.location)</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.url</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Observation.performer.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1804,7 +1975,7 @@
     <t>outBoundRelationship[typeCode=COMP]</t>
   </si>
   <si>
-    <t>For BP is used for value1</t>
+    <t>Used for BP</t>
   </si>
   <si>
     <t>Observation.component.id</t>
@@ -2208,7 +2379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AR92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2258,6 +2429,7 @@
     <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="30.00390625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="72.09765625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="37.41015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2382,6 +2554,9 @@
       <c r="AQ1" t="s" s="2">
         <v>49</v>
       </c>
+      <c r="AR1" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -2505,6 +2680,9 @@
       <c r="AQ2" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR2" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
@@ -2626,6 +2804,9 @@
       <c r="AQ3" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR3" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
@@ -2749,6 +2930,9 @@
       <c r="AQ4" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR4" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
@@ -2872,6 +3056,9 @@
       <c r="AQ5" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR5" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
@@ -2995,6 +3182,9 @@
       <c r="AQ6" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR6" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
@@ -3118,6 +3308,9 @@
       <c r="AQ7" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR7" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
@@ -3241,6 +3434,9 @@
       <c r="AQ8" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR8" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
@@ -3366,6 +3562,9 @@
       <c r="AQ9" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR9" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
@@ -3487,6 +3686,9 @@
       <c r="AQ10" t="s" s="2">
         <v>119</v>
       </c>
+      <c r="AR10" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
@@ -3612,6 +3814,9 @@
       <c r="AQ11" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR11" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
@@ -3733,6 +3938,9 @@
       <c r="AQ12" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR12" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
@@ -3856,6 +4064,9 @@
       <c r="AQ13" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR13" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
@@ -3981,6 +4192,9 @@
       <c r="AQ14" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR14" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
@@ -4106,6 +4320,9 @@
       <c r="AQ15" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR15" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
@@ -4231,6 +4448,9 @@
       <c r="AQ16" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR16" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
@@ -4354,6 +4574,9 @@
       <c r="AQ17" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR17" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
@@ -4475,6 +4698,9 @@
       <c r="AQ18" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR18" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
@@ -4598,6 +4824,9 @@
       <c r="AQ19" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR19" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
@@ -4721,6 +4950,9 @@
       <c r="AQ20" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR20" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
@@ -4844,6 +5076,9 @@
       <c r="AQ21" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR21" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
@@ -4967,6 +5202,9 @@
       <c r="AQ22" t="s" s="2">
         <v>226</v>
       </c>
+      <c r="AR22" t="s" s="2">
+        <v>226</v>
+      </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
@@ -5090,6 +5328,9 @@
       <c r="AQ23" t="s" s="2">
         <v>237</v>
       </c>
+      <c r="AR23" t="s" s="2">
+        <v>237</v>
+      </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
@@ -5217,6 +5458,9 @@
       <c r="AQ24" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR24" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
@@ -5338,6 +5582,9 @@
       <c r="AQ25" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR25" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
@@ -5461,6 +5708,9 @@
       <c r="AQ26" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR26" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
@@ -5586,6 +5836,9 @@
       <c r="AQ27" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR27" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
@@ -5707,6 +5960,9 @@
       <c r="AQ28" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR28" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
@@ -5830,6 +6086,9 @@
       <c r="AQ29" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR29" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
@@ -5955,6 +6214,9 @@
       <c r="AQ30" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR30" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
@@ -6078,6 +6340,9 @@
       <c r="AQ31" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR31" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
@@ -6201,6 +6466,9 @@
       <c r="AQ32" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR32" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
@@ -6324,6 +6592,9 @@
       <c r="AQ33" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR33" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
@@ -6449,6 +6720,9 @@
       <c r="AQ34" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR34" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
@@ -6574,6 +6848,9 @@
       <c r="AQ35" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR35" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
@@ -6699,6 +6976,9 @@
       <c r="AQ36" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR36" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
@@ -6820,6 +7100,9 @@
       <c r="AQ37" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR37" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
@@ -6943,6 +7226,9 @@
       <c r="AQ38" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR38" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
@@ -7068,6 +7354,9 @@
       <c r="AQ39" t="s" s="2">
         <v>329</v>
       </c>
+      <c r="AR39" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
@@ -7193,6 +7482,9 @@
       <c r="AQ40" t="s" s="2">
         <v>331</v>
       </c>
+      <c r="AR40" t="s" s="2">
+        <v>331</v>
+      </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
@@ -7318,6 +7610,9 @@
       <c r="AQ41" t="s" s="2">
         <v>342</v>
       </c>
+      <c r="AR41" t="s" s="2">
+        <v>342</v>
+      </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
@@ -7441,6 +7736,9 @@
       <c r="AQ42" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR42" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
@@ -7566,6 +7864,9 @@
       <c r="AQ43" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR43" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
@@ -7689,6 +7990,9 @@
       <c r="AQ44" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR44" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
@@ -7816,6 +8120,9 @@
       <c r="AQ45" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="AR45" t="s" s="2">
+        <v>377</v>
+      </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
@@ -7939,6 +8246,9 @@
       <c r="AQ46" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AR46" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
@@ -8062,6 +8372,9 @@
       <c r="AQ47" t="s" s="2">
         <v>395</v>
       </c>
+      <c r="AR47" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
@@ -8082,29 +8395,25 @@
         <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>124</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>125</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>40</v>
       </c>
@@ -8128,13 +8437,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8152,7 +8461,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8161,53 +8470,56 @@
         <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>405</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>128</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>409</v>
+        <v>40</v>
+      </c>
+      <c r="AR48" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>40</v>
@@ -8216,20 +8528,18 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>411</v>
+        <v>98</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>40</v>
       </c>
@@ -8253,43 +8563,43 @@
         <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>416</v>
+        <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>410</v>
+        <v>134</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>417</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -8298,10 +8608,10 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>418</v>
+        <v>128</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8310,26 +8620,31 @@
         <v>40</v>
       </c>
       <c r="AQ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -8341,20 +8656,18 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>40</v>
       </c>
@@ -8378,13 +8691,13 @@
         <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8402,7 +8715,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>419</v>
+        <v>134</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8414,36 +8727,39 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>428</v>
+        <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="AQ50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AR50" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8454,10 +8770,10 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
@@ -8466,20 +8782,16 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>432</v>
+        <v>53</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>433</v>
+        <v>125</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>40</v>
       </c>
@@ -8527,19 +8839,19 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8548,10 +8860,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>438</v>
+        <v>128</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8560,15 +8872,18 @@
         <v>40</v>
       </c>
       <c r="AQ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8579,7 +8894,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -8591,13 +8906,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>125</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8636,31 +8951,31 @@
         <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -8672,7 +8987,7 @@
         <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8681,26 +8996,29 @@
         <v>40</v>
       </c>
       <c r="AQ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -8712,16 +9030,16 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>100</v>
+        <v>416</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8729,7 +9047,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>40</v>
@@ -8759,31 +9077,31 @@
         <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>134</v>
+        <v>418</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -8795,7 +9113,7 @@
         <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8804,15 +9122,18 @@
         <v>40</v>
       </c>
       <c r="AQ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR53" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8820,7 +9141,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>51</v>
@@ -8832,20 +9153,18 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -8894,7 +9213,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8903,7 +9222,7 @@
         <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>63</v>
@@ -8915,11 +9234,11 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AN54" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
       </c>
@@ -8927,15 +9246,18 @@
         <v>40</v>
       </c>
       <c r="AQ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR54" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8958,15 +9280,17 @@
         <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -9015,7 +9339,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9024,7 +9348,7 @@
         <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>63</v>
@@ -9036,11 +9360,11 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AN55" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
       </c>
@@ -9048,15 +9372,18 @@
         <v>40</v>
       </c>
       <c r="AQ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR55" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9064,7 +9391,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>51</v>
@@ -9079,15 +9406,17 @@
         <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>454</v>
+        <v>65</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -9112,13 +9441,13 @@
         <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
@@ -9136,10 +9465,10 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>51</v>
@@ -9157,11 +9486,11 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
       </c>
@@ -9169,15 +9498,18 @@
         <v>40</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>459</v>
+        <v>40</v>
+      </c>
+      <c r="AR56" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9188,7 +9520,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -9197,19 +9529,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9235,13 +9567,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>465</v>
+        <v>40</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>466</v>
+        <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9259,7 +9591,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9277,30 +9609,33 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>467</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>468</v>
+        <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="AQ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR57" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9311,7 +9646,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -9320,23 +9655,21 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>40</v>
       </c>
@@ -9360,13 +9693,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>477</v>
+        <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9384,7 +9717,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9405,10 +9738,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>478</v>
+        <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>479</v>
+        <v>94</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9417,15 +9750,18 @@
         <v>40</v>
       </c>
       <c r="AQ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR58" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9436,30 +9772,32 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
       </c>
@@ -9483,13 +9821,13 @@
         <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>456</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>40</v>
@@ -9507,7 +9845,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9516,7 +9854,7 @@
         <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>63</v>
@@ -9525,30 +9863,33 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>40</v>
+        <v>463</v>
+      </c>
+      <c r="AR59" t="s" s="2">
+        <v>463</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9562,7 +9903,7 @@
         <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>40</v>
@@ -9571,18 +9912,20 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>490</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>40</v>
       </c>
@@ -9606,13 +9949,13 @@
         <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>469</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>40</v>
@@ -9630,7 +9973,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9639,7 +9982,7 @@
         <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>471</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>63</v>
@@ -9648,34 +9991,37 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>494</v>
+        <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>495</v>
+        <v>94</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="AQ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR60" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9694,19 +10040,19 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>499</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9731,13 +10077,13 @@
         <v>40</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>479</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>40</v>
@@ -9755,7 +10101,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9767,36 +10113,39 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>504</v>
+        <v>63</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="AQ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR61" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9807,10 +10156,10 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>40</v>
@@ -9819,16 +10168,20 @@
         <v>40</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>125</v>
+        <v>487</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>40</v>
       </c>
@@ -9876,19 +10229,19 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>127</v>
+        <v>485</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -9897,10 +10250,10 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>128</v>
+        <v>492</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -9909,26 +10262,29 @@
         <v>40</v>
       </c>
       <c r="AQ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR62" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -9940,17 +10296,15 @@
         <v>40</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -9999,19 +10353,19 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -10032,19 +10386,22 @@
         <v>40</v>
       </c>
       <c r="AQ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR63" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>510</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10057,26 +10414,24 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>511</v>
+        <v>98</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>512</v>
+        <v>131</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="O64" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>40</v>
       </c>
@@ -10112,19 +10467,19 @@
         <v>40</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>513</v>
+        <v>134</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10148,7 +10503,7 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -10157,15 +10512,18 @@
         <v>40</v>
       </c>
       <c r="AQ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10185,18 +10543,20 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -10245,7 +10605,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10254,7 +10614,7 @@
         <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>518</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>63</v>
@@ -10266,10 +10626,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>519</v>
+        <v>94</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10278,15 +10638,18 @@
         <v>40</v>
       </c>
       <c r="AQ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10306,16 +10669,16 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>515</v>
+        <v>362</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10366,7 +10729,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10375,7 +10738,7 @@
         <v>51</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>518</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>63</v>
@@ -10387,10 +10750,10 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>519</v>
+        <v>94</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10399,15 +10762,18 @@
         <v>40</v>
       </c>
       <c r="AQ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR66" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10415,7 +10781,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>51</v>
@@ -10427,23 +10793,19 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>149</v>
+        <v>508</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>40</v>
       </c>
@@ -10467,13 +10829,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>530</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>531</v>
+        <v>40</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10491,10 +10853,10 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>51</v>
@@ -10509,13 +10871,13 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>532</v>
+        <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>533</v>
+        <v>94</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
@@ -10524,15 +10886,18 @@
         <v>40</v>
       </c>
       <c r="AQ67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AR67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10543,7 +10908,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -10558,17 +10923,15 @@
         <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>40</v>
       </c>
@@ -10592,13 +10955,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10616,13 +10979,13 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>40</v>
@@ -10634,30 +10997,33 @@
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>40</v>
+        <v>524</v>
       </c>
       <c r="AQ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR68" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10668,7 +11034,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -10680,17 +11046,19 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>542</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10715,13 +11083,13 @@
         <v>40</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>40</v>
+        <v>530</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>40</v>
+        <v>531</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>40</v>
@@ -10739,7 +11107,7 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10760,10 +11128,10 @@
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>532</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -10772,15 +11140,18 @@
         <v>40</v>
       </c>
       <c r="AQ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR69" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10791,7 +11162,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -10803,15 +11174,17 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>124</v>
+        <v>535</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -10860,7 +11233,7 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10878,30 +11251,33 @@
         <v>40</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>40</v>
+        <v>539</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="AQ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10921,19 +11297,19 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10983,13 +11359,13 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>40</v>
@@ -11001,30 +11377,33 @@
         <v>40</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>40</v>
+        <v>548</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>40</v>
+        <v>551</v>
       </c>
       <c r="AQ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11044,21 +11423,23 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
@@ -11106,7 +11487,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11118,7 +11499,7 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>40</v>
@@ -11127,10 +11508,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11139,15 +11520,18 @@
         <v>40</v>
       </c>
       <c r="AQ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11158,32 +11542,28 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>499</v>
+        <v>124</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>565</v>
+        <v>125</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>40</v>
       </c>
@@ -11231,19 +11611,19 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>564</v>
+        <v>127</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>569</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -11252,10 +11632,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>571</v>
+        <v>128</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11264,26 +11644,29 @@
         <v>40</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>572</v>
+        <v>40</v>
+      </c>
+      <c r="AR73" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -11295,15 +11678,17 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11352,19 +11737,19 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>40</v>
@@ -11385,19 +11770,22 @@
         <v>40</v>
       </c>
       <c r="AQ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR74" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>96</v>
+        <v>564</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11410,24 +11798,26 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>98</v>
+        <v>565</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>131</v>
+        <v>566</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
@@ -11475,7 +11865,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11499,7 +11889,7 @@
         <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11508,51 +11898,50 @@
         <v>40</v>
       </c>
       <c r="AQ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>97</v>
+        <v>569</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>40</v>
       </c>
@@ -11600,19 +11989,19 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>572</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -11621,10 +12010,10 @@
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>40</v>
+        <v>573</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>94</v>
+        <v>574</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11633,15 +12022,18 @@
         <v>40</v>
       </c>
       <c r="AQ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR76" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11649,35 +12041,31 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>149</v>
+        <v>569</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>40</v>
       </c>
@@ -11701,13 +12089,13 @@
         <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>40</v>
@@ -11725,16 +12113,16 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>40</v>
+        <v>572</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>63</v>
@@ -11743,30 +12131,33 @@
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>581</v>
+        <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>322</v>
+        <v>573</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>323</v>
+        <v>578</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR77" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11780,28 +12171,28 @@
         <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11826,13 +12217,13 @@
         <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>402</v>
+        <v>584</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>403</v>
+        <v>585</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -11850,7 +12241,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11859,7 +12250,7 @@
         <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>586</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>63</v>
@@ -11868,21 +12259,24 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="AQ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR78" t="s" s="2">
         <v>40</v>
       </c>
     </row>
@@ -11902,10 +12296,10 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>40</v>
@@ -11926,7 +12320,7 @@
         <v>591</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>414</v>
+        <v>592</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11951,13 +12345,13 @@
         <v>40</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>154</v>
+        <v>518</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>415</v>
+        <v>593</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>416</v>
+        <v>594</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
@@ -11981,10 +12375,10 @@
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>592</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>63</v>
@@ -11993,13 +12387,13 @@
         <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>40</v>
+        <v>586</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>94</v>
+        <v>587</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12008,26 +12402,29 @@
         <v>40</v>
       </c>
       <c r="AQ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR79" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -12039,19 +12436,17 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>149</v>
+        <v>596</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>421</v>
+        <v>597</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>424</v>
+        <v>599</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12076,13 +12471,13 @@
         <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
@@ -12100,13 +12495,13 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
@@ -12118,30 +12513,33 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>428</v>
+        <v>40</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>429</v>
+        <v>600</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="AQ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR80" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12152,7 +12550,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -12164,20 +12562,16 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>40</v>
       </c>
@@ -12225,13 +12619,13 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
@@ -12246,10 +12640,10 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>506</v>
+        <v>604</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>
@@ -12258,11 +12652,1412 @@
         <v>40</v>
       </c>
       <c r="AQ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ84" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AR84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR86" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AQ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AQ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR92" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ81">
+  <autoFilter ref="A1:AR92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12272,7 +14067,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1274,7 +1274,7 @@
     <t>Given that a reference SHALL have a display or reference, using this extension implies that there's a display present.</t>
   </si>
   <si>
-    <t>Organization(VitalSignTO.location)</t>
+    <t>Location(VitalSignTO.location)</t>
   </si>
   <si>
     <t>Observation.performer.extension:site.id</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,33 +450,60 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.extension:position</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {observation-bodyPosition}
+</t>
+  </si>
+  <si>
+    <t>The body position during the observation</t>
+  </si>
+  <si>
+    <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>VF_VitalsPosition(Qualifier)</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -484,6 +511,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -510,9 +540,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -562,11 +589,10 @@
     <t>Observation.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1169,7 +1195,7 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>VitalSignTO.type.name convert to LOINC using ObservationTypeTOVsLoincCode</t>
+    <t>VitalSignTO.type.name convert to LOINC using VF_VitalsCodes</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1415,20 +1441,10 @@
     <t>Observation.performer.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.performer.extension:site.extension</t>
   </si>
   <si>
     <t>Observation.performer.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>Observation.performer.extension:site.url</t>
@@ -1721,6 +1737,9 @@
     <t>718497002 |Inherent location|</t>
   </si>
   <si>
+    <t>VF_VitalsSite(Qualifier)</t>
+  </si>
+  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1746,6 +1765,9 @@
   </si>
   <si>
     <t>methodCode</t>
+  </si>
+  <si>
+    <t>VF_VitalsMethod(Qualifier)</t>
   </si>
   <si>
     <t>Observation.specimen</t>
@@ -1802,6 +1824,9 @@
   </si>
   <si>
     <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>VF_VitalsDevice(Qualifier)</t>
   </si>
   <si>
     <t>Observation.referenceRange</t>
@@ -2042,9 +2067,6 @@
     <t>outBoundRelationship[typeCode=COMP]</t>
   </si>
   <si>
-    <t>Used for BP</t>
-  </si>
-  <si>
     <t>Observation.component.id</t>
   </si>
   <si>
@@ -2071,6 +2093,9 @@
   <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>all non matched Qualifier</t>
   </si>
   <si>
     <t>Observation.component.value[x]</t>
@@ -2446,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR88"/>
+  <dimension ref="A1:AR89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2496,7 +2521,7 @@
     <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="72.09765625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="56.6484375" customWidth="true" bestFit="true"/>
     <col min="44" max="44" width="37.41015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3523,7 +3548,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3542,17 +3567,15 @@
         <v>84</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>84</v>
@@ -3589,16 +3612,14 @@
         <v>84</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>145</v>
@@ -3625,7 +3646,7 @@
         <v>84</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>84</v>
@@ -3645,43 +3666,41 @@
         <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>84</v>
       </c>
@@ -3729,7 +3748,7 @@
         <v>84</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -3738,7 +3757,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3753,7 +3772,7 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>84</v>
@@ -3762,7 +3781,7 @@
         <v>84</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="AR10" t="s" s="2">
         <v>84</v>
@@ -3770,18 +3789,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>83</v>
@@ -3790,23 +3809,25 @@
         <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>84</v>
@@ -3843,17 +3864,19 @@
         <v>84</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
@@ -3865,28 +3888,28 @@
         <v>84</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="AR11" t="s" s="2">
         <v>84</v>
@@ -3894,14 +3917,12 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>84</v>
       </c>
@@ -3922,17 +3943,17 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>84</v>
@@ -3969,19 +3990,17 @@
         <v>84</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3996,25 +4015,25 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AR12" t="s" s="2">
         <v>84</v>
@@ -4022,21 +4041,23 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>84</v>
@@ -4045,19 +4066,21 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>84</v>
       </c>
@@ -4105,34 +4128,34 @@
         <v>84</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>84</v>
@@ -4146,21 +4169,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>84</v>
@@ -4172,17 +4195,15 @@
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>84</v>
@@ -4219,31 +4240,31 @@
         <v>84</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>84</v>
@@ -4255,7 +4276,7 @@
         <v>84</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>84</v>
@@ -4272,46 +4293,44 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>84</v>
       </c>
@@ -4320,58 +4339,58 @@
         <v>84</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>84</v>
@@ -4380,10 +4399,10 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>84</v>
@@ -4400,10 +4419,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4411,7 +4430,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>95</v>
@@ -4420,25 +4439,25 @@
         <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>84</v>
@@ -4448,7 +4467,7 @@
         <v>84</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>84</v>
@@ -4463,13 +4482,13 @@
         <v>84</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>84</v>
@@ -4487,7 +4506,7 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
@@ -4508,10 +4527,10 @@
         <v>84</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>84</v>
@@ -4528,10 +4547,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4554,19 +4573,19 @@
         <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>84</v>
@@ -4579,43 +4598,43 @@
         <v>84</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4627,7 +4646,7 @@
         <v>84</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>84</v>
@@ -4636,10 +4655,10 @@
         <v>84</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>84</v>
@@ -4656,10 +4675,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4682,18 +4701,20 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>84</v>
       </c>
@@ -4705,7 +4726,7 @@
         <v>84</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>84</v>
@@ -4741,7 +4762,7 @@
         <v>84</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4753,7 +4774,7 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>84</v>
@@ -4762,10 +4783,10 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>84</v>
@@ -4782,10 +4803,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4808,15 +4829,17 @@
         <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>84</v>
@@ -4829,7 +4852,7 @@
         <v>84</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>84</v>
@@ -4940,9 +4963,7 @@
       <c r="M20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>84</v>
@@ -4991,7 +5012,7 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -5012,10 +5033,10 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>84</v>
@@ -5032,21 +5053,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>84</v>
@@ -5058,18 +5079,18 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>84</v>
       </c>
@@ -5117,13 +5138,13 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>84</v>
@@ -5132,16 +5153,16 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>84</v>
@@ -5158,14 +5179,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5184,18 +5205,18 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>84</v>
       </c>
@@ -5243,7 +5264,7 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
@@ -5258,16 +5279,16 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>84</v>
@@ -5284,46 +5305,44 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O23" t="s" s="2">
         <v>262</v>
       </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>84</v>
       </c>
@@ -5332,7 +5351,7 @@
         <v>84</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>84</v>
@@ -5347,11 +5366,13 @@
         <v>84</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>84</v>
@@ -5369,13 +5390,13 @@
         <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>84</v>
@@ -5384,36 +5405,36 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AO23" t="s" s="2">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>270</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5424,31 +5445,31 @@
         <v>95</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>84</v>
@@ -5458,7 +5479,7 @@
         <v>84</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>84</v>
@@ -5473,35 +5494,35 @@
         <v>84</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>84</v>
@@ -5510,40 +5531,38 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>84</v>
       </c>
@@ -5552,7 +5571,7 @@
         <v>95</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>96</v>
@@ -5564,19 +5583,19 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>84</v>
@@ -5604,28 +5623,26 @@
         <v>119</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -5649,41 +5666,43 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>84</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>84</v>
@@ -5692,16 +5711,20 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>84</v>
       </c>
@@ -5725,13 +5748,13 @@
         <v>84</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>84</v>
@@ -5749,19 +5772,19 @@
         <v>84</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>84</v>
@@ -5773,10 +5796,10 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>84</v>
@@ -5790,21 +5813,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>84</v>
@@ -5816,17 +5839,15 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>84</v>
@@ -5863,31 +5884,31 @@
         <v>84</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>84</v>
@@ -5899,7 +5920,7 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>84</v>
@@ -5916,46 +5937,44 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>84</v>
       </c>
@@ -5991,19 +6010,19 @@
         <v>84</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -6015,7 +6034,7 @@
         <v>84</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>84</v>
@@ -6024,10 +6043,10 @@
         <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>84</v>
@@ -6044,10 +6063,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6055,31 +6074,35 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>84</v>
       </c>
@@ -6127,19 +6150,19 @@
         <v>84</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>84</v>
@@ -6148,10 +6171,10 @@
         <v>84</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>84</v>
@@ -6168,21 +6191,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>84</v>
@@ -6194,17 +6217,15 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>84</v>
@@ -6241,31 +6262,31 @@
         <v>84</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>84</v>
@@ -6277,7 +6298,7 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>84</v>
@@ -6294,52 +6315,50 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>84</v>
@@ -6369,31 +6388,31 @@
         <v>84</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>84</v>
@@ -6402,10 +6421,10 @@
         <v>84</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>84</v>
@@ -6422,10 +6441,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6433,13 +6452,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>84</v>
@@ -6448,24 +6467,26 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>84</v>
@@ -6559,13 +6580,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>84</v>
@@ -6574,7 +6595,7 @@
         <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>322</v>
@@ -6582,58 +6603,58 @@
       <c r="M33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>324</v>
       </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6654,10 +6675,10 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>84</v>
@@ -6674,10 +6695,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6685,13 +6706,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>84</v>
@@ -6700,24 +6721,24 @@
         <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>84</v>
+        <v>333</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>84</v>
@@ -6826,19 +6847,17 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
@@ -6887,7 +6906,7 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6908,10 +6927,10 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -6928,10 +6947,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6954,19 +6973,19 @@
         <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>84</v>
@@ -7015,7 +7034,7 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -7036,10 +7055,10 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>84</v>
@@ -7056,24 +7075,24 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>357</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>84</v>
@@ -7082,19 +7101,19 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -7119,13 +7138,13 @@
         <v>84</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>84</v>
@@ -7143,10 +7162,10 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>95</v>
@@ -7158,22 +7177,22 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>369</v>
+        <v>84</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>84</v>
@@ -7184,42 +7203,46 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
       </c>
@@ -7243,13 +7266,13 @@
         <v>84</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>84</v>
@@ -7267,10 +7290,10 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>95</v>
@@ -7279,25 +7302,25 @@
         <v>84</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>84</v>
@@ -7308,21 +7331,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>84</v>
@@ -7334,17 +7357,15 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>84</v>
@@ -7381,31 +7402,31 @@
         <v>84</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>84</v>
@@ -7417,7 +7438,7 @@
         <v>84</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>84</v>
@@ -7434,14 +7455,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7451,29 +7472,27 @@
         <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>84</v>
       </c>
@@ -7509,19 +7528,19 @@
         <v>84</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -7533,7 +7552,7 @@
         <v>84</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>84</v>
@@ -7542,10 +7561,10 @@
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>84</v>
@@ -7554,7 +7573,7 @@
         <v>84</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>373</v>
+        <v>84</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>84</v>
@@ -7562,10 +7581,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7576,7 +7595,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>96</v>
@@ -7588,19 +7607,19 @@
         <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>84</v>
@@ -7649,13 +7668,13 @@
         <v>84</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>84</v>
@@ -7670,10 +7689,10 @@
         <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>84</v>
@@ -7682,18 +7701,18 @@
         <v>84</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>375</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7701,7 +7720,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>95</v>
@@ -7716,19 +7735,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7777,7 +7796,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7792,36 +7811,36 @@
         <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>382</v>
+        <v>84</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AR42" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7829,13 +7848,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>84</v>
@@ -7844,18 +7863,20 @@
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>84</v>
       </c>
@@ -7903,13 +7924,13 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>84</v>
@@ -7918,40 +7939,40 @@
         <v>107</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>84</v>
+        <v>390</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>392</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>84</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7970,20 +7991,18 @@
         <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O44" t="s" s="2">
         <v>399</v>
       </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>84</v>
       </c>
@@ -8031,13 +8050,13 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>84</v>
@@ -8046,19 +8065,19 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AO44" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>84</v>
@@ -8072,24 +8091,24 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>84</v>
@@ -8098,19 +8117,19 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>84</v>
@@ -8147,17 +8166,19 @@
         <v>84</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>412</v>
+        <v>84</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -8166,25 +8187,25 @@
         <v>95</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>413</v>
+        <v>84</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>414</v>
+        <v>107</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>84</v>
@@ -8198,16 +8219,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8226,19 +8245,19 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>84</v>
@@ -8275,19 +8294,17 @@
         <v>84</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8296,56 +8313,58 @@
         <v>95</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>421</v>
+        <v>84</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>421</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>84</v>
+        <v>413</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>84</v>
@@ -8354,18 +8373,20 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>84</v>
       </c>
@@ -8413,7 +8434,7 @@
         <v>84</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8422,34 +8443,34 @@
         <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>107</v>
+        <v>422</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>84</v>
+        <v>423</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AO47" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AP47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AR47" t="s" s="2">
-        <v>84</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -8468,10 +8489,10 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>84</v>
@@ -8488,10 +8509,10 @@
       <c r="M48" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>434</v>
       </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>84</v>
       </c>
@@ -8545,7 +8566,7 @@
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>84</v>
@@ -8554,25 +8575,25 @@
         <v>107</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AO48" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="AP48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>439</v>
+        <v>84</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>84</v>
@@ -8580,10 +8601,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8594,28 +8615,30 @@
         <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>169</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>170</v>
+        <v>441</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>84</v>
       </c>
@@ -8663,40 +8686,40 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>171</v>
+        <v>438</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>84</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>84</v>
+        <v>444</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>172</v>
+        <v>445</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>84</v>
+        <v>446</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>84</v>
+        <v>447</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>84</v>
@@ -8704,21 +8727,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>84</v>
@@ -8730,17 +8753,15 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -8777,31 +8798,31 @@
         <v>84</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>84</v>
@@ -8813,7 +8834,7 @@
         <v>84</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>84</v>
@@ -8830,23 +8851,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>84</v>
@@ -8858,16 +8877,16 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>183</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
+        <v>184</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>447</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8905,19 +8924,19 @@
         <v>84</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8941,7 +8960,7 @@
         <v>84</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>84</v>
@@ -8950,7 +8969,7 @@
         <v>84</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>448</v>
+        <v>84</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>84</v>
@@ -8958,12 +8977,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>84</v>
       </c>
@@ -8984,15 +9005,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>169</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>84</v>
@@ -9041,19 +9064,19 @@
         <v>84</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>451</v>
+        <v>84</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>84</v>
@@ -9065,7 +9088,7 @@
         <v>84</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>84</v>
@@ -9074,7 +9097,7 @@
         <v>84</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>84</v>
+        <v>456</v>
       </c>
       <c r="AR52" t="s" s="2">
         <v>84</v>
@@ -9082,10 +9105,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9096,7 +9119,7 @@
         <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>84</v>
@@ -9108,13 +9131,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>177</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
+        <v>178</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9153,31 +9176,31 @@
         <v>84</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>84</v>
@@ -9189,7 +9212,7 @@
         <v>84</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>84</v>
@@ -9206,10 +9229,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9217,10 +9240,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>84</v>
@@ -9232,24 +9255,22 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>461</v>
+        <v>84</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>84</v>
@@ -9279,31 +9300,31 @@
         <v>84</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>84</v>
@@ -9315,7 +9336,7 @@
         <v>84</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>84</v>
@@ -9332,10 +9353,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9358,22 +9379,24 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>84</v>
+        <v>466</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>84</v>
@@ -9415,19 +9438,19 @@
         <v>84</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>469</v>
+        <v>84</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>84</v>
@@ -9456,10 +9479,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9467,7 +9490,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>95</v>
@@ -9479,10 +9502,10 @@
         <v>84</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>168</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>471</v>
@@ -9490,9 +9513,7 @@
       <c r="M56" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>473</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>84</v>
@@ -9541,7 +9562,7 @@
         <v>84</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -9550,7 +9571,7 @@
         <v>95</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>107</v>
@@ -9582,10 +9603,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9608,16 +9629,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9643,13 +9664,13 @@
         <v>84</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>480</v>
+        <v>84</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>481</v>
+        <v>84</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>84</v>
@@ -9667,7 +9688,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9676,7 +9697,7 @@
         <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>107</v>
@@ -9708,10 +9729,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9734,16 +9755,16 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9769,13 +9790,13 @@
         <v>84</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>84</v>
@@ -9817,7 +9838,7 @@
         <v>84</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>488</v>
+        <v>138</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>84</v>
@@ -9834,10 +9855,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9860,16 +9881,16 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9919,7 +9940,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9943,7 +9964,7 @@
         <v>84</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>138</v>
+        <v>493</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>84</v>
@@ -9977,7 +9998,7 @@
         <v>95</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>84</v>
@@ -9986,20 +10007,18 @@
         <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>499</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>84</v>
       </c>
@@ -10023,13 +10042,13 @@
         <v>84</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>500</v>
+        <v>84</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>501</v>
+        <v>84</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>84</v>
@@ -10047,7 +10066,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -10056,7 +10075,7 @@
         <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>502</v>
+        <v>84</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>107</v>
@@ -10065,33 +10084,33 @@
         <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>503</v>
+        <v>84</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>504</v>
+        <v>84</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>505</v>
+        <v>138</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>506</v>
+        <v>84</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>507</v>
+        <v>84</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>507</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10102,7 +10121,7 @@
         <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>96</v>
@@ -10111,22 +10130,22 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>84</v>
@@ -10151,13 +10170,13 @@
         <v>84</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>84</v>
@@ -10175,7 +10194,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10184,7 +10203,7 @@
         <v>95</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>107</v>
@@ -10193,37 +10212,37 @@
         <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>84</v>
+        <v>508</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>138</v>
+        <v>509</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>84</v>
+        <v>511</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>84</v>
+        <v>512</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>84</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>518</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -10233,7 +10252,7 @@
         <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>84</v>
@@ -10242,19 +10261,19 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -10279,13 +10298,13 @@
         <v>84</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>84</v>
@@ -10303,16 +10322,16 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>107</v>
@@ -10321,19 +10340,19 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>525</v>
+        <v>84</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>526</v>
+        <v>138</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>528</v>
+        <v>84</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>84</v>
@@ -10344,14 +10363,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>84</v>
+        <v>523</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10370,19 +10389,19 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>530</v>
+        <v>201</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>84</v>
@@ -10407,13 +10426,13 @@
         <v>84</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>84</v>
+        <v>528</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>84</v>
+        <v>529</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>84</v>
@@ -10431,7 +10450,7 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10449,19 +10468,19 @@
         <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>84</v>
+        <v>530</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>84</v>
+        <v>533</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>84</v>
@@ -10472,10 +10491,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10498,18 +10517,20 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>193</v>
+        <v>535</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>84</v>
       </c>
@@ -10533,13 +10554,13 @@
         <v>84</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>541</v>
+        <v>84</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>542</v>
+        <v>84</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>543</v>
+        <v>84</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>84</v>
@@ -10557,13 +10578,13 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>84</v>
@@ -10575,19 +10596,19 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>544</v>
+        <v>84</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>547</v>
+        <v>84</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>84</v>
@@ -10598,10 +10619,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10612,10 +10633,10 @@
         <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>84</v>
@@ -10624,20 +10645,18 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>84</v>
       </c>
@@ -10661,13 +10680,13 @@
         <v>84</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
@@ -10685,7 +10704,7 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10703,22 +10722,22 @@
         <v>84</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>84</v>
+        <v>549</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>84</v>
+        <v>552</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>84</v>
+        <v>553</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>84</v>
@@ -10726,10 +10745,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10740,10 +10759,10 @@
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>84</v>
@@ -10752,18 +10771,20 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>84</v>
       </c>
@@ -10787,13 +10808,13 @@
         <v>84</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>84</v>
+        <v>546</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>84</v>
+        <v>559</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>84</v>
+        <v>560</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>84</v>
@@ -10811,7 +10832,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10829,22 +10850,22 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR66" t="s" s="2">
         <v>84</v>
@@ -10852,10 +10873,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10878,16 +10899,16 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10937,7 +10958,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10955,19 +10976,19 @@
         <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>84</v>
@@ -10978,10 +10999,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10992,10 +11013,10 @@
         <v>82</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>84</v>
@@ -11004,20 +11025,18 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>84</v>
       </c>
@@ -11065,40 +11084,40 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AK68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AQ68" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>84</v>
@@ -11106,10 +11125,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11120,7 +11139,7 @@
         <v>82</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>84</v>
@@ -11132,16 +11151,20 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>168</v>
+        <v>584</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>169</v>
+        <v>585</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>84</v>
       </c>
@@ -11189,19 +11212,19 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>171</v>
+        <v>583</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>84</v>
+        <v>589</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>84</v>
@@ -11210,10 +11233,10 @@
         <v>84</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>84</v>
+        <v>590</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>172</v>
+        <v>591</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>84</v>
@@ -11230,21 +11253,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>84</v>
@@ -11256,17 +11279,15 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>84</v>
@@ -11315,19 +11336,19 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>84</v>
@@ -11339,7 +11360,7 @@
         <v>84</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
@@ -11356,14 +11377,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>587</v>
+        <v>155</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11376,26 +11397,24 @@
         <v>84</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>588</v>
+        <v>183</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>589</v>
+        <v>184</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>84</v>
       </c>
@@ -11443,7 +11462,7 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>590</v>
+        <v>186</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11467,7 +11486,7 @@
         <v>84</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>84</v>
@@ -11484,42 +11503,46 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>84</v>
+        <v>595</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>592</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>84</v>
       </c>
@@ -11567,19 +11590,19 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>595</v>
+        <v>84</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>84</v>
@@ -11588,10 +11611,10 @@
         <v>84</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>596</v>
+        <v>84</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>597</v>
+        <v>138</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>84</v>
@@ -11608,10 +11631,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11634,13 +11657,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11691,7 +11714,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11700,7 +11723,7 @@
         <v>95</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>107</v>
@@ -11712,10 +11735,10 @@
         <v>84</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>84</v>
@@ -11732,10 +11755,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11758,20 +11781,16 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>193</v>
+        <v>600</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>84</v>
       </c>
@@ -11795,13 +11814,13 @@
         <v>84</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>607</v>
+        <v>84</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>608</v>
+        <v>84</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>84</v>
@@ -11819,7 +11838,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11828,7 +11847,7 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>84</v>
+        <v>603</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>107</v>
@@ -11837,13 +11856,13 @@
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11860,10 +11879,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11874,7 +11893,7 @@
         <v>82</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>84</v>
@@ -11886,19 +11905,19 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>84</v>
@@ -11923,14 +11942,14 @@
         <v>84</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>541</v>
+        <v>119</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>84</v>
       </c>
@@ -11947,13 +11966,13 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>84</v>
@@ -11965,13 +11984,13 @@
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
@@ -11988,10 +12007,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12002,7 +12021,7 @@
         <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>84</v>
@@ -12014,7 +12033,7 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>619</v>
+        <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>620</v>
@@ -12022,9 +12041,11 @@
       <c r="M76" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -12049,13 +12070,13 @@
         <v>84</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>84</v>
+        <v>546</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>84</v>
+        <v>624</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>84</v>
@@ -12073,13 +12094,13 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>84</v>
@@ -12091,13 +12112,13 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>84</v>
+        <v>617</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>84</v>
+        <v>618</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>623</v>
+        <v>532</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
@@ -12114,10 +12135,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12140,16 +12161,18 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>168</v>
+        <v>627</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>84</v>
       </c>
@@ -12197,7 +12220,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12218,10 +12241,10 @@
         <v>84</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>596</v>
+        <v>84</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>84</v>
@@ -12238,10 +12261,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12252,7 +12275,7 @@
         <v>82</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>84</v>
@@ -12261,20 +12284,18 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>629</v>
+        <v>176</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>632</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -12323,13 +12344,13 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>84</v>
@@ -12344,10 +12365,10 @@
         <v>84</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
@@ -12364,10 +12385,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12390,16 +12411,16 @@
         <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12449,7 +12470,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12470,10 +12491,10 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12490,10 +12511,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12507,7 +12528,7 @@
         <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>84</v>
@@ -12516,20 +12537,18 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>84</v>
       </c>
@@ -12577,7 +12596,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12589,7 +12608,7 @@
         <v>84</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>646</v>
+        <v>107</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>84</v>
@@ -12598,7 +12617,7 @@
         <v>84</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>648</v>
@@ -12610,7 +12629,7 @@
         <v>84</v>
       </c>
       <c r="AQ80" t="s" s="2">
-        <v>649</v>
+        <v>84</v>
       </c>
       <c r="AR80" t="s" s="2">
         <v>84</v>
@@ -12618,10 +12637,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12632,28 +12651,32 @@
         <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>168</v>
+        <v>584</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>169</v>
+        <v>650</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
       </c>
@@ -12701,19 +12724,19 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>171</v>
+        <v>649</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>84</v>
+        <v>654</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>84</v>
@@ -12722,10 +12745,10 @@
         <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>84</v>
+        <v>655</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>172</v>
+        <v>656</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12742,21 +12765,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>84</v>
@@ -12768,17 +12791,15 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12827,19 +12848,19 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>84</v>
@@ -12851,7 +12872,7 @@
         <v>84</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
@@ -12868,14 +12889,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>587</v>
+        <v>155</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12888,26 +12909,24 @@
         <v>84</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>588</v>
+        <v>183</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>589</v>
+        <v>184</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>84</v>
       </c>
@@ -12955,7 +12974,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>590</v>
+        <v>186</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12979,7 +12998,7 @@
         <v>84</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12996,45 +13015,45 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>84</v>
+        <v>595</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>654</v>
+        <v>596</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>655</v>
+        <v>597</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>656</v>
+        <v>158</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>657</v>
+        <v>159</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>84</v>
@@ -13059,13 +13078,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -13083,34 +13102,34 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>653</v>
+        <v>598</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>658</v>
+        <v>84</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>366</v>
+        <v>84</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>84</v>
@@ -13124,10 +13143,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13135,7 +13154,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>95</v>
@@ -13150,19 +13169,19 @@
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>495</v>
+        <v>201</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>499</v>
+        <v>664</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -13187,13 +13206,13 @@
         <v>84</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>501</v>
+        <v>371</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -13211,16 +13230,16 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>663</v>
+        <v>84</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>107</v>
@@ -13229,22 +13248,22 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>504</v>
+        <v>374</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>505</v>
+        <v>375</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>506</v>
+        <v>84</v>
       </c>
       <c r="AQ85" t="s" s="2">
-        <v>84</v>
+        <v>666</v>
       </c>
       <c r="AR85" t="s" s="2">
         <v>84</v>
@@ -13252,10 +13271,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13275,22 +13294,22 @@
         <v>84</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -13315,13 +13334,13 @@
         <v>84</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>84</v>
@@ -13339,7 +13358,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -13348,7 +13367,7 @@
         <v>95</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>107</v>
@@ -13357,19 +13376,19 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>138</v>
+        <v>509</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>84</v>
+        <v>511</v>
       </c>
       <c r="AQ86" t="s" s="2">
         <v>84</v>
@@ -13380,24 +13399,24 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>518</v>
+        <v>84</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>84</v>
@@ -13406,19 +13425,19 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>519</v>
+        <v>674</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>521</v>
+        <v>676</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -13443,13 +13462,13 @@
         <v>84</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>84</v>
@@ -13467,16 +13486,16 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>107</v>
@@ -13485,19 +13504,19 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>525</v>
+        <v>84</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>526</v>
+        <v>138</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>528</v>
+        <v>84</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>84</v>
@@ -13508,14 +13527,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>84</v>
+        <v>523</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13534,19 +13553,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>672</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>673</v>
+        <v>525</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>579</v>
+        <v>526</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13571,13 +13590,13 @@
         <v>84</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>84</v>
+        <v>528</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>84</v>
+        <v>529</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>84</v>
@@ -13595,7 +13614,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13613,29 +13632,157 @@
         <v>84</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>84</v>
+        <v>530</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>84</v>
+        <v>533</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR88" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR89" t="s" s="2">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR88">
+  <autoFilter ref="A1:AR89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13645,7 +13792,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$90</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="687">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,10 +474,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Observation.extension:position</t>
-  </si>
-  <si>
-    <t>position</t>
+    <t>Observation.extension:bodyPosition</t>
+  </si>
+  <si>
+    <t>bodyPosition</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {observation-bodyPosition}
@@ -495,6 +495,25 @@
   </si>
   <si>
     <t>VF_VitalsPosition(Qualifier)</t>
+  </si>
+  <si>
+    <t>Observation.extension:deviceCode</t>
+  </si>
+  <si>
+    <t>deviceCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {observation-deviceCode}
+</t>
+  </si>
+  <si>
+    <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`</t>
+  </si>
+  <si>
+    <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
+  </si>
+  <si>
+    <t>VF_VitalsDevice(Qualifier)</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1824,9 +1843,6 @@
   </si>
   <si>
     <t>424226004 |Using device|</t>
-  </si>
-  <si>
-    <t>VF_VitalsDevice(Qualifier)</t>
   </si>
   <si>
     <t>Observation.referenceRange</t>
@@ -2471,7 +2487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR89"/>
+  <dimension ref="A1:AR90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3792,43 +3808,41 @@
         <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>84</v>
       </c>
@@ -3876,7 +3890,7 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
@@ -3885,7 +3899,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>146</v>
@@ -3900,7 +3914,7 @@
         <v>84</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>84</v>
@@ -3909,7 +3923,7 @@
         <v>84</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="AR11" t="s" s="2">
         <v>84</v>
@@ -3917,18 +3931,18 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
@@ -3937,21 +3951,23 @@
         <v>84</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>165</v>
       </c>
@@ -3990,17 +4006,19 @@
         <v>84</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -4012,28 +4030,28 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AR12" t="s" s="2">
         <v>84</v>
@@ -4041,14 +4059,12 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>84</v>
       </c>
@@ -4069,17 +4085,17 @@
         <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>84</v>
@@ -4116,19 +4132,17 @@
         <v>84</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -4143,25 +4157,25 @@
         <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="AR13" t="s" s="2">
         <v>84</v>
@@ -4169,21 +4183,23 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>84</v>
@@ -4192,19 +4208,21 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>84</v>
       </c>
@@ -4252,34 +4270,34 @@
         <v>84</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>84</v>
@@ -4293,21 +4311,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>84</v>
@@ -4319,7 +4337,7 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>183</v>
@@ -4327,9 +4345,7 @@
       <c r="M15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>84</v>
@@ -4366,43 +4382,43 @@
         <v>84</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>84</v>
@@ -4426,26 +4442,26 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>189</v>
@@ -4454,11 +4470,9 @@
         <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>84</v>
       </c>
@@ -4467,7 +4481,7 @@
         <v>84</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>84</v>
@@ -4482,43 +4496,43 @@
         <v>84</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>84</v>
@@ -4527,10 +4541,10 @@
         <v>84</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>84</v>
@@ -4547,10 +4561,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4558,7 +4572,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>95</v>
@@ -4567,25 +4581,25 @@
         <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>84</v>
@@ -4595,7 +4609,7 @@
         <v>84</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>84</v>
@@ -4610,13 +4624,13 @@
         <v>84</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>84</v>
@@ -4634,7 +4648,7 @@
         <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4655,10 +4669,10 @@
         <v>84</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>84</v>
@@ -4675,10 +4689,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4701,19 +4715,19 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>84</v>
@@ -4726,7 +4740,7 @@
         <v>84</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>84</v>
@@ -4738,13 +4752,13 @@
         <v>84</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>84</v>
@@ -4762,7 +4776,7 @@
         <v>84</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4774,7 +4788,7 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>84</v>
@@ -4783,10 +4797,10 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>84</v>
@@ -4803,10 +4817,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4829,18 +4843,20 @@
         <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>84</v>
       </c>
@@ -4852,7 +4868,7 @@
         <v>84</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>84</v>
@@ -4888,7 +4904,7 @@
         <v>84</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4900,7 +4916,7 @@
         <v>84</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>84</v>
@@ -4909,10 +4925,10 @@
         <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>84</v>
@@ -4929,10 +4945,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4955,15 +4971,17 @@
         <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>84</v>
@@ -4976,7 +4994,7 @@
         <v>84</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>84</v>
@@ -5012,7 +5030,7 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -5033,10 +5051,10 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>84</v>
@@ -5053,10 +5071,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5079,17 +5097,15 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>84</v>
@@ -5138,7 +5154,7 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -5159,10 +5175,10 @@
         <v>84</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>84</v>
@@ -5179,21 +5195,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>84</v>
@@ -5205,18 +5221,18 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>84</v>
       </c>
@@ -5264,13 +5280,13 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>84</v>
@@ -5279,16 +5295,16 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>84</v>
@@ -5305,14 +5321,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5331,18 +5347,18 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>84</v>
       </c>
@@ -5390,7 +5406,7 @@
         <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -5405,16 +5421,16 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>84</v>
@@ -5431,46 +5447,44 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>84</v>
       </c>
@@ -5479,7 +5493,7 @@
         <v>84</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>84</v>
@@ -5494,11 +5508,13 @@
         <v>84</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>84</v>
@@ -5516,13 +5532,13 @@
         <v>84</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>84</v>
@@ -5531,36 +5547,36 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5571,31 +5587,31 @@
         <v>95</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>96</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>84</v>
@@ -5605,7 +5621,7 @@
         <v>84</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>84</v>
+        <v>277</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>84</v>
@@ -5620,35 +5636,35 @@
         <v>84</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>84</v>
@@ -5657,40 +5673,38 @@
         <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>84</v>
       </c>
@@ -5699,7 +5713,7 @@
         <v>95</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>96</v>
@@ -5711,19 +5725,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>84</v>
@@ -5751,28 +5765,26 @@
         <v>119</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Z26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AC26" s="2"/>
+      <c r="AD26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5796,41 +5808,43 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="AR26" t="s" s="2">
-        <v>84</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>84</v>
@@ -5839,16 +5853,20 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>84</v>
       </c>
@@ -5872,13 +5890,13 @@
         <v>84</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>84</v>
@@ -5896,19 +5914,19 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>84</v>
@@ -5920,10 +5938,10 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>84</v>
+        <v>294</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>84</v>
@@ -5937,21 +5955,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>84</v>
@@ -5963,7 +5981,7 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>183</v>
@@ -5971,9 +5989,7 @@
       <c r="M28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>84</v>
@@ -6010,43 +6026,43 @@
         <v>84</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>84</v>
@@ -6063,46 +6079,44 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>84</v>
       </c>
@@ -6138,19 +6152,19 @@
         <v>84</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -6162,7 +6176,7 @@
         <v>84</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>84</v>
@@ -6171,10 +6185,10 @@
         <v>84</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>304</v>
+        <v>84</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>84</v>
@@ -6191,10 +6205,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6202,31 +6216,35 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>84</v>
       </c>
@@ -6274,19 +6292,19 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>84</v>
@@ -6295,10 +6313,10 @@
         <v>84</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>180</v>
+        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>84</v>
@@ -6315,21 +6333,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>84</v>
@@ -6341,7 +6359,7 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>183</v>
@@ -6349,9 +6367,7 @@
       <c r="M31" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>84</v>
@@ -6388,43 +6404,43 @@
         <v>84</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>84</v>
@@ -6441,52 +6457,50 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>84</v>
@@ -6516,31 +6530,31 @@
         <v>84</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>84</v>
@@ -6549,10 +6563,10 @@
         <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>84</v>
@@ -6569,10 +6583,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6580,13 +6594,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>84</v>
@@ -6595,24 +6609,26 @@
         <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>84</v>
@@ -6654,7 +6670,7 @@
         <v>84</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6675,10 +6691,10 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>84</v>
@@ -6695,10 +6711,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6706,13 +6722,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>84</v>
@@ -6721,24 +6737,24 @@
         <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>333</v>
+        <v>84</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>84</v>
@@ -6780,7 +6796,7 @@
         <v>84</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6801,10 +6817,10 @@
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>84</v>
@@ -6821,10 +6837,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6832,13 +6848,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>84</v>
@@ -6847,24 +6863,24 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>84</v>
@@ -6906,7 +6922,7 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6927,10 +6943,10 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -6947,10 +6963,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6973,19 +6989,17 @@
         <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>84</v>
@@ -7034,7 +7048,7 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -7055,10 +7069,10 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>84</v>
@@ -7075,10 +7089,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7101,19 +7115,19 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -7162,7 +7176,7 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -7183,10 +7197,10 @@
         <v>84</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>84</v>
@@ -7203,24 +7217,24 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>84</v>
@@ -7229,19 +7243,19 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
@@ -7266,13 +7280,13 @@
         <v>84</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>370</v>
+        <v>84</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>84</v>
@@ -7290,10 +7304,10 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>95</v>
@@ -7305,22 +7319,22 @@
         <v>107</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>373</v>
+        <v>84</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>376</v>
+        <v>84</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>377</v>
+        <v>84</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>84</v>
@@ -7331,42 +7345,46 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>177</v>
+        <v>372</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>84</v>
       </c>
@@ -7390,13 +7408,13 @@
         <v>84</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>84</v>
@@ -7414,10 +7432,10 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>95</v>
@@ -7426,25 +7444,25 @@
         <v>84</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>84</v>
+        <v>378</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>84</v>
+        <v>379</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>84</v>
+        <v>382</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -7455,21 +7473,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>84</v>
@@ -7481,7 +7499,7 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>183</v>
@@ -7489,9 +7507,7 @@
       <c r="M40" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>84</v>
@@ -7528,43 +7544,43 @@
         <v>84</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF40" t="s" s="2">
+      <c r="AG40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>84</v>
@@ -7581,14 +7597,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7598,29 +7614,27 @@
         <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>84</v>
       </c>
@@ -7656,19 +7670,19 @@
         <v>84</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7680,7 +7694,7 @@
         <v>84</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>84</v>
@@ -7689,10 +7703,10 @@
         <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>304</v>
+        <v>84</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>84</v>
@@ -7701,7 +7715,7 @@
         <v>84</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>381</v>
+        <v>84</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>84</v>
@@ -7709,10 +7723,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7723,7 +7737,7 @@
         <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>96</v>
@@ -7735,19 +7749,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7796,13 +7810,13 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>84</v>
@@ -7817,10 +7831,10 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>84</v>
@@ -7829,18 +7843,18 @@
         <v>84</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>383</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7848,7 +7862,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>95</v>
@@ -7863,19 +7877,19 @@
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -7924,7 +7938,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7939,36 +7953,36 @@
         <v>107</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>390</v>
+        <v>84</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>393</v>
+        <v>84</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7976,13 +7990,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>84</v>
@@ -7991,18 +8005,20 @@
         <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
       </c>
@@ -8050,13 +8066,13 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>84</v>
@@ -8065,28 +8081,28 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AO44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ44" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AR44" t="s" s="2">
-        <v>84</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -8098,7 +8114,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -8117,20 +8133,18 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>84</v>
       </c>
@@ -8184,7 +8198,7 @@
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>84</v>
@@ -8193,19 +8207,19 @@
         <v>107</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>408</v>
+        <v>84</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>84</v>
@@ -8219,24 +8233,24 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>84</v>
@@ -8245,19 +8259,19 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>84</v>
@@ -8294,17 +8308,19 @@
         <v>84</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8313,25 +8329,25 @@
         <v>95</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>421</v>
+        <v>84</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>422</v>
+        <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>84</v>
@@ -8345,16 +8361,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8373,19 +8387,19 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>84</v>
@@ -8422,19 +8436,17 @@
         <v>84</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>84</v>
+        <v>426</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8443,56 +8455,58 @@
         <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>429</v>
+        <v>84</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>429</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>84</v>
+        <v>419</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>84</v>
@@ -8501,18 +8515,20 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
       </c>
@@ -8560,7 +8576,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8569,42 +8585,42 @@
         <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>84</v>
+        <v>427</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>84</v>
+        <v>429</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN48" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ48" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AR48" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8615,10 +8631,10 @@
         <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>84</v>
@@ -8627,18 +8643,18 @@
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>84</v>
       </c>
@@ -8686,13 +8702,13 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>84</v>
@@ -8701,25 +8717,25 @@
         <v>107</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>84</v>
@@ -8727,10 +8743,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8741,28 +8757,30 @@
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>176</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>177</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>84</v>
       </c>
@@ -8810,40 +8828,40 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>84</v>
+        <v>449</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>84</v>
+        <v>450</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>180</v>
+        <v>451</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>84</v>
+        <v>452</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>84</v>
+        <v>453</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>84</v>
@@ -8851,21 +8869,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>84</v>
@@ -8877,7 +8895,7 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>183</v>
@@ -8885,9 +8903,7 @@
       <c r="M51" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>84</v>
@@ -8924,43 +8940,43 @@
         <v>84</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF51" t="s" s="2">
+      <c r="AG51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>84</v>
@@ -8977,23 +8993,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>84</v>
@@ -9005,16 +9019,16 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>189</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>190</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -9052,19 +9066,19 @@
         <v>84</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -9088,7 +9102,7 @@
         <v>84</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>84</v>
@@ -9097,7 +9111,7 @@
         <v>84</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>456</v>
+        <v>84</v>
       </c>
       <c r="AR52" t="s" s="2">
         <v>84</v>
@@ -9105,12 +9119,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>84</v>
       </c>
@@ -9131,15 +9147,17 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>84</v>
@@ -9188,19 +9206,19 @@
         <v>84</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>84</v>
@@ -9212,7 +9230,7 @@
         <v>84</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>84</v>
@@ -9221,7 +9239,7 @@
         <v>84</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>84</v>
+        <v>462</v>
       </c>
       <c r="AR53" t="s" s="2">
         <v>84</v>
@@ -9229,10 +9247,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9243,7 +9261,7 @@
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>84</v>
@@ -9255,13 +9273,13 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -9300,43 +9318,43 @@
         <v>84</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AD54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF54" t="s" s="2">
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>84</v>
@@ -9353,10 +9371,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9364,10 +9382,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>84</v>
@@ -9379,24 +9397,22 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>463</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>466</v>
+        <v>84</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>84</v>
@@ -9426,31 +9442,31 @@
         <v>84</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>467</v>
+        <v>192</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>84</v>
@@ -9462,7 +9478,7 @@
         <v>84</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>84</v>
@@ -9479,10 +9495,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9505,22 +9521,24 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>84</v>
+        <v>472</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>84</v>
@@ -9565,16 +9583,16 @@
         <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>474</v>
+        <v>84</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>84</v>
@@ -9603,7 +9621,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>475</v>
@@ -9614,7 +9632,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>95</v>
@@ -9626,20 +9644,18 @@
         <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N57" t="s" s="2">
         <v>478</v>
       </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9755,7 +9771,7 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>482</v>
@@ -9790,31 +9806,31 @@
         <v>84</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9823,7 +9839,7 @@
         <v>95</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>107</v>
@@ -9855,10 +9871,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9881,16 +9897,16 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9916,13 +9932,13 @@
         <v>84</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>84</v>
+        <v>491</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>84</v>
+        <v>492</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>84</v>
@@ -9940,7 +9956,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9964,7 +9980,7 @@
         <v>84</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>493</v>
+        <v>138</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>84</v>
@@ -10007,7 +10023,7 @@
         <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>495</v>
@@ -10090,7 +10106,7 @@
         <v>84</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>84</v>
@@ -10107,10 +10123,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10124,7 +10140,7 @@
         <v>95</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>84</v>
@@ -10133,7 +10149,7 @@
         <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>500</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>501</v>
@@ -10144,9 +10160,7 @@
       <c r="N61" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="O61" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>84</v>
       </c>
@@ -10170,13 +10184,13 @@
         <v>84</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>505</v>
+        <v>84</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>506</v>
+        <v>84</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>84</v>
@@ -10194,7 +10208,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10203,7 +10217,7 @@
         <v>95</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>507</v>
+        <v>84</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>107</v>
@@ -10212,33 +10226,33 @@
         <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>508</v>
+        <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>509</v>
+        <v>84</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>510</v>
+        <v>138</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>511</v>
+        <v>84</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>512</v>
+        <v>84</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>512</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10249,7 +10263,7 @@
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>96</v>
@@ -10258,22 +10272,22 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>201</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -10298,13 +10312,13 @@
         <v>84</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>84</v>
@@ -10322,7 +10336,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10331,7 +10345,7 @@
         <v>95</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>107</v>
@@ -10340,47 +10354,47 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>84</v>
+        <v>514</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>138</v>
+        <v>515</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>84</v>
+        <v>517</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>84</v>
+        <v>518</v>
       </c>
       <c r="AR62" t="s" s="2">
-        <v>84</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>523</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>84</v>
@@ -10389,19 +10403,19 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>84</v>
@@ -10426,13 +10440,13 @@
         <v>84</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>84</v>
@@ -10450,16 +10464,16 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>84</v>
+        <v>526</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>107</v>
@@ -10468,19 +10482,19 @@
         <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>530</v>
+        <v>84</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>531</v>
+        <v>138</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>533</v>
+        <v>84</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>84</v>
@@ -10491,14 +10505,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>84</v>
+        <v>529</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10517,19 +10531,19 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>535</v>
+        <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10554,13 +10568,13 @@
         <v>84</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>84</v>
+        <v>534</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>84</v>
+        <v>535</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>84</v>
@@ -10578,7 +10592,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10596,19 +10610,19 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>84</v>
+        <v>536</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>84</v>
+        <v>539</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>84</v>
@@ -10619,10 +10633,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10633,10 +10647,10 @@
         <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>84</v>
@@ -10645,18 +10659,20 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>201</v>
+        <v>541</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>84</v>
       </c>
@@ -10680,13 +10696,13 @@
         <v>84</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>546</v>
+        <v>84</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>547</v>
+        <v>84</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>548</v>
+        <v>84</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
@@ -10704,13 +10720,13 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>84</v>
@@ -10722,22 +10738,22 @@
         <v>84</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>549</v>
+        <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>552</v>
+        <v>84</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>553</v>
+        <v>84</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>84</v>
@@ -10745,10 +10761,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10771,20 +10787,18 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>84</v>
       </c>
@@ -10808,13 +10822,13 @@
         <v>84</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>84</v>
@@ -10832,7 +10846,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10850,22 +10864,22 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>84</v>
+        <v>558</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AR66" t="s" s="2">
         <v>84</v>
@@ -10873,10 +10887,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10887,10 +10901,10 @@
         <v>82</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>84</v>
@@ -10899,18 +10913,20 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>565</v>
+        <v>207</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
       </c>
@@ -10934,13 +10950,13 @@
         <v>84</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>84</v>
+        <v>552</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>84</v>
+        <v>565</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>84</v>
+        <v>566</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>84</v>
@@ -10958,7 +10974,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10976,22 +10992,22 @@
         <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR67" t="s" s="2">
         <v>84</v>
@@ -10999,10 +11015,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11013,10 +11029,10 @@
         <v>82</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>84</v>
@@ -11025,16 +11041,16 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -11084,7 +11100,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -11102,22 +11118,22 @@
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AM68" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="AQ68" t="s" s="2">
-        <v>582</v>
+        <v>84</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>84</v>
@@ -11125,10 +11141,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11151,20 +11167,18 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>84</v>
       </c>
@@ -11212,37 +11226,37 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>589</v>
+        <v>107</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>84</v>
+        <v>584</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>84</v>
+        <v>587</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>84</v>
@@ -11253,10 +11267,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11267,7 +11281,7 @@
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>84</v>
@@ -11279,16 +11293,20 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>176</v>
+        <v>589</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>177</v>
+        <v>590</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
       </c>
@@ -11336,19 +11354,19 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>179</v>
+        <v>588</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>84</v>
+        <v>594</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>84</v>
@@ -11357,10 +11375,10 @@
         <v>84</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>84</v>
+        <v>595</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>180</v>
+        <v>596</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
@@ -11377,21 +11395,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>84</v>
@@ -11403,7 +11421,7 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>183</v>
@@ -11411,9 +11429,7 @@
       <c r="M71" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>84</v>
@@ -11462,31 +11478,31 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>84</v>
@@ -11503,14 +11519,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>595</v>
+        <v>161</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11523,26 +11539,24 @@
         <v>84</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>596</v>
+        <v>189</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>597</v>
+        <v>190</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>84</v>
       </c>
@@ -11590,7 +11604,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>598</v>
+        <v>192</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11614,7 +11628,7 @@
         <v>84</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>84</v>
@@ -11638,26 +11652,26 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>84</v>
+        <v>600</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>601</v>
@@ -11665,8 +11679,12 @@
       <c r="M73" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>84</v>
       </c>
@@ -11714,19 +11732,19 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>603</v>
+        <v>84</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>84</v>
@@ -11735,10 +11753,10 @@
         <v>84</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>604</v>
+        <v>84</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>605</v>
+        <v>138</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>84</v>
@@ -11755,10 +11773,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11781,13 +11799,13 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11838,7 +11856,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11847,7 +11865,7 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>107</v>
@@ -11859,10 +11877,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11879,10 +11897,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11905,20 +11923,16 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>201</v>
+        <v>605</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N75" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="O75" t="s" s="2">
-        <v>614</v>
-      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>84</v>
       </c>
@@ -11942,13 +11956,13 @@
         <v>84</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>615</v>
+        <v>84</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>616</v>
+        <v>84</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>84</v>
@@ -11966,7 +11980,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11975,7 +11989,7 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>84</v>
+        <v>608</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>107</v>
@@ -11984,13 +11998,13 @@
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>617</v>
+        <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>532</v>
+        <v>614</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
@@ -12007,10 +12021,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12021,7 +12035,7 @@
         <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>84</v>
@@ -12033,19 +12047,19 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -12070,13 +12084,13 @@
         <v>84</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>546</v>
+        <v>119</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>84</v>
@@ -12094,13 +12108,13 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>84</v>
@@ -12112,13 +12126,13 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
@@ -12135,10 +12149,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12149,7 +12163,7 @@
         <v>82</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>84</v>
@@ -12161,17 +12175,19 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>84</v>
@@ -12196,13 +12212,13 @@
         <v>84</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>84</v>
+        <v>552</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>84</v>
+        <v>630</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>84</v>
@@ -12220,13 +12236,13 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>84</v>
@@ -12238,13 +12254,13 @@
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>84</v>
+        <v>622</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>84</v>
+        <v>623</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>631</v>
+        <v>538</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>84</v>
@@ -12261,10 +12277,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12287,7 +12303,7 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>633</v>
@@ -12296,7 +12312,9 @@
         <v>634</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
       </c>
@@ -12344,7 +12362,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -12365,10 +12383,10 @@
         <v>84</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>604</v>
+        <v>84</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
@@ -12385,10 +12403,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12399,7 +12417,7 @@
         <v>82</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>84</v>
@@ -12408,10 +12426,10 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>637</v>
+        <v>182</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>638</v>
@@ -12419,9 +12437,7 @@
       <c r="M79" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>640</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>84</v>
@@ -12470,13 +12486,13 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>84</v>
@@ -12491,10 +12507,10 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12511,10 +12527,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12537,16 +12553,16 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12596,7 +12612,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12617,10 +12633,10 @@
         <v>84</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
@@ -12637,10 +12653,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12651,10 +12667,10 @@
         <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>84</v>
@@ -12663,7 +12679,7 @@
         <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>650</v>
@@ -12674,9 +12690,7 @@
       <c r="N81" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="O81" t="s" s="2">
-        <v>653</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>84</v>
       </c>
@@ -12724,7 +12738,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12736,7 +12750,7 @@
         <v>84</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>654</v>
+        <v>107</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>84</v>
@@ -12745,10 +12759,10 @@
         <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12765,10 +12779,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12779,28 +12793,32 @@
         <v>82</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>176</v>
+        <v>589</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>177</v>
+        <v>655</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>658</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
       </c>
@@ -12848,19 +12866,19 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>179</v>
+        <v>654</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>84</v>
+        <v>659</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>84</v>
@@ -12869,10 +12887,10 @@
         <v>84</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>84</v>
+        <v>660</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>180</v>
+        <v>661</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
@@ -12889,21 +12907,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>84</v>
@@ -12915,7 +12933,7 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>183</v>
@@ -12923,9 +12941,7 @@
       <c r="M83" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12974,31 +12990,31 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -13015,14 +13031,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>595</v>
+        <v>161</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -13035,26 +13051,24 @@
         <v>84</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>596</v>
+        <v>189</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>597</v>
+        <v>190</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>84</v>
       </c>
@@ -13102,7 +13116,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>598</v>
+        <v>192</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -13126,7 +13140,7 @@
         <v>84</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
@@ -13143,45 +13157,45 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>84</v>
+        <v>600</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>661</v>
+        <v>601</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>662</v>
+        <v>602</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>663</v>
+        <v>164</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>664</v>
+        <v>165</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -13206,13 +13220,13 @@
         <v>84</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>370</v>
+        <v>84</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -13230,40 +13244,40 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>660</v>
+        <v>603</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>665</v>
+        <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>376</v>
+        <v>84</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ85" t="s" s="2">
-        <v>666</v>
+        <v>84</v>
       </c>
       <c r="AR85" t="s" s="2">
         <v>84</v>
@@ -13271,10 +13285,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13282,7 +13296,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>95</v>
@@ -13297,19 +13311,19 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>500</v>
+        <v>207</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -13334,13 +13348,13 @@
         <v>84</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>505</v>
+        <v>376</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>506</v>
+        <v>377</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>84</v>
@@ -13358,16 +13372,16 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>671</v>
+        <v>84</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>107</v>
@@ -13376,22 +13390,22 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>509</v>
+        <v>380</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>510</v>
+        <v>381</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>84</v>
+        <v>382</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>511</v>
+        <v>84</v>
       </c>
       <c r="AQ86" t="s" s="2">
-        <v>84</v>
+        <v>671</v>
       </c>
       <c r="AR86" t="s" s="2">
         <v>84</v>
@@ -13399,10 +13413,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13422,22 +13436,22 @@
         <v>84</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>201</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="N87" t="s" s="2">
-        <v>676</v>
-      </c>
       <c r="O87" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -13462,13 +13476,13 @@
         <v>84</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>84</v>
@@ -13486,7 +13500,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13495,7 +13509,7 @@
         <v>95</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>107</v>
@@ -13504,19 +13518,19 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>138</v>
+        <v>515</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>84</v>
+        <v>517</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>84</v>
@@ -13534,17 +13548,17 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>523</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>84</v>
@@ -13553,19 +13567,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>524</v>
+        <v>679</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>525</v>
+        <v>680</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>526</v>
+        <v>681</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13590,13 +13604,13 @@
         <v>84</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>84</v>
@@ -13620,10 +13634,10 @@
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>84</v>
+        <v>682</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>107</v>
@@ -13632,19 +13646,19 @@
         <v>84</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>530</v>
+        <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>531</v>
+        <v>138</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>533</v>
+        <v>84</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>84</v>
@@ -13655,14 +13669,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>84</v>
+        <v>529</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13681,19 +13695,19 @@
         <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>680</v>
+        <v>530</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>681</v>
+        <v>531</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>587</v>
+        <v>532</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>588</v>
+        <v>533</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13718,13 +13732,13 @@
         <v>84</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>84</v>
+        <v>534</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>84</v>
+        <v>535</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>84</v>
@@ -13742,7 +13756,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13760,29 +13774,157 @@
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>84</v>
+        <v>536</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>84</v>
+        <v>539</v>
       </c>
       <c r="AQ89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR89" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR90" t="s" s="2">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR89">
+  <autoFilter ref="A1:AR90">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13792,7 +13934,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI89">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="686">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -868,7 +868,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -880,9 +880,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
@@ -901,7 +898,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>`final`</t>
+    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -5621,7 +5618,7 @@
         <v>84</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>84</v>
@@ -5640,7 +5637,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>84</v>
@@ -5673,36 +5670,36 @@
         <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AR25" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5728,16 +5725,16 @@
         <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>84</v>
@@ -5765,16 +5762,16 @@
         <v>119</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -5784,7 +5781,7 @@
         <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5808,30 +5805,30 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AP26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AR26" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>84</v>
@@ -5856,16 +5853,16 @@
         <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>84</v>
@@ -5893,11 +5890,11 @@
         <v>119</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>84</v>
       </c>
@@ -5914,7 +5911,7 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5938,10 +5935,10 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>84</v>
@@ -5955,10 +5952,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6079,10 +6076,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6205,10 +6202,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6231,19 +6228,19 @@
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>84</v>
@@ -6292,7 +6289,7 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -6313,10 +6310,10 @@
         <v>84</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>84</v>
@@ -6333,10 +6330,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6457,10 +6454,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6583,10 +6580,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6612,65 +6609,65 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6691,10 +6688,10 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>84</v>
@@ -6711,10 +6708,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6740,13 +6737,13 @@
         <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6796,7 +6793,7 @@
         <v>84</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6817,10 +6814,10 @@
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>84</v>
@@ -6837,10 +6834,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6866,63 +6863,63 @@
         <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6943,10 +6940,10 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -6963,10 +6960,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6992,14 +6989,14 @@
         <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>84</v>
@@ -7048,7 +7045,7 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -7069,10 +7066,10 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>84</v>
@@ -7089,10 +7086,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7115,19 +7112,19 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -7176,7 +7173,7 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -7197,10 +7194,10 @@
         <v>84</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>84</v>
@@ -7217,10 +7214,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7246,16 +7243,16 @@
         <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
@@ -7304,7 +7301,7 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7325,10 +7322,10 @@
         <v>84</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>84</v>
@@ -7345,14 +7342,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7374,16 +7371,16 @@
         <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>84</v>
@@ -7411,11 +7408,11 @@
         <v>212</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>84</v>
       </c>
@@ -7432,7 +7429,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>95</v>
@@ -7447,22 +7444,22 @@
         <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -7473,10 +7470,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7597,10 +7594,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7723,10 +7720,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7749,19 +7746,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7810,7 +7807,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7831,11 +7828,11 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN42" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AO42" t="s" s="2">
         <v>84</v>
       </c>
@@ -7843,7 +7840,7 @@
         <v>84</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>84</v>
@@ -7851,10 +7848,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7880,16 +7877,16 @@
         <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -7938,7 +7935,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7959,11 +7956,11 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN43" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AO43" t="s" s="2">
         <v>84</v>
       </c>
@@ -7971,18 +7968,18 @@
         <v>84</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8005,19 +8002,19 @@
         <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
@@ -8066,7 +8063,7 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -8081,36 +8078,36 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AP44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AP44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ44" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AR44" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8133,16 +8130,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -8192,7 +8189,7 @@
         <v>84</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -8213,13 +8210,13 @@
         <v>84</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>84</v>
@@ -8233,14 +8230,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8259,19 +8256,19 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>84</v>
@@ -8320,7 +8317,7 @@
         <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8335,19 +8332,19 @@
         <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>84</v>
@@ -8361,14 +8358,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8387,19 +8384,19 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>84</v>
@@ -8436,17 +8433,17 @@
         <v>84</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8455,25 +8452,25 @@
         <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>84</v>
@@ -8487,16 +8484,16 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="D48" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8515,19 +8512,19 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
@@ -8576,7 +8573,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8585,42 +8582,42 @@
         <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AO48" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AP48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8643,16 +8640,16 @@
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8702,7 +8699,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8723,13 +8720,13 @@
         <v>84</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
@@ -8743,10 +8740,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8769,17 +8766,17 @@
         <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -8828,7 +8825,7 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8843,25 +8840,25 @@
         <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AO50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>84</v>
@@ -8869,10 +8866,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8993,10 +8990,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9119,13 +9116,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>84</v>
@@ -9147,16 +9144,16 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -9239,7 +9236,7 @@
         <v>84</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AR53" t="s" s="2">
         <v>84</v>
@@ -9247,10 +9244,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9371,10 +9368,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9495,10 +9492,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9524,13 +9521,13 @@
         <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9538,49 +9535,49 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>95</v>
@@ -9621,10 +9618,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9647,13 +9644,13 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9704,7 +9701,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9713,7 +9710,7 @@
         <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>107</v>
@@ -9745,10 +9742,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9774,13 +9771,13 @@
         <v>182</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9830,7 +9827,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9839,7 +9836,7 @@
         <v>95</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>107</v>
@@ -9871,10 +9868,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9900,13 +9897,13 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9935,28 +9932,28 @@
         <v>212</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9997,10 +9994,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10026,13 +10023,13 @@
         <v>168</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10082,7 +10079,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -10106,7 +10103,7 @@
         <v>84</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>84</v>
@@ -10123,10 +10120,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10152,13 +10149,13 @@
         <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10208,7 +10205,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10249,10 +10246,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10275,19 +10272,19 @@
         <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -10315,11 +10312,11 @@
         <v>212</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>84</v>
       </c>
@@ -10336,7 +10333,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10345,7 +10342,7 @@
         <v>95</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>107</v>
@@ -10354,33 +10351,33 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AO62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP62" t="s" s="2">
+      <c r="AQ62" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AQ62" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="AR62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10406,16 +10403,16 @@
         <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>84</v>
@@ -10443,11 +10440,11 @@
         <v>212</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>84</v>
       </c>
@@ -10464,7 +10461,7 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10473,7 +10470,7 @@
         <v>95</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>107</v>
@@ -10488,7 +10485,7 @@
         <v>138</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>84</v>
@@ -10505,14 +10502,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10534,16 +10531,16 @@
         <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10571,11 +10568,11 @@
         <v>212</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>84</v>
       </c>
@@ -10592,7 +10589,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10610,19 +10607,19 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>84</v>
@@ -10633,10 +10630,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10659,19 +10656,19 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>84</v>
@@ -10720,7 +10717,7 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10741,10 +10738,10 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>84</v>
@@ -10761,10 +10758,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10790,13 +10787,13 @@
         <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10822,14 +10819,14 @@
         <v>84</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>84</v>
       </c>
@@ -10846,7 +10843,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10864,22 +10861,22 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AO66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP66" t="s" s="2">
+      <c r="AQ66" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AR66" t="s" s="2">
         <v>84</v>
@@ -10887,10 +10884,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10916,16 +10913,16 @@
         <v>207</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -10950,14 +10947,14 @@
         <v>84</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>84</v>
       </c>
@@ -10974,7 +10971,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10995,19 +10992,19 @@
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AR67" t="s" s="2">
         <v>84</v>
@@ -11015,10 +11012,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11041,16 +11038,16 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -11100,7 +11097,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -11118,19 +11115,19 @@
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>84</v>
@@ -11141,10 +11138,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11167,16 +11164,16 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11226,7 +11223,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -11244,19 +11241,19 @@
         <v>84</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>84</v>
@@ -11267,10 +11264,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11293,19 +11290,19 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
@@ -11354,7 +11351,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11366,19 +11363,19 @@
         <v>84</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AK70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
@@ -11395,10 +11392,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11519,10 +11516,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11645,14 +11642,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11674,10 +11671,10 @@
         <v>140</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>164</v>
@@ -11732,7 +11729,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11773,10 +11770,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11799,13 +11796,13 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11856,7 +11853,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11865,7 +11862,7 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>107</v>
@@ -11877,10 +11874,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11897,10 +11894,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11923,13 +11920,13 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11980,7 +11977,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11989,7 +11986,7 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>107</v>
@@ -12001,10 +11998,10 @@
         <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
@@ -12021,10 +12018,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12050,16 +12047,16 @@
         <v>207</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -12087,11 +12084,11 @@
         <v>119</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>84</v>
       </c>
@@ -12108,7 +12105,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -12126,13 +12123,13 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AM76" t="s" s="2">
-        <v>623</v>
-      </c>
       <c r="AN76" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
@@ -12149,10 +12146,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12178,16 +12175,16 @@
         <v>207</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>84</v>
@@ -12212,14 +12209,14 @@
         <v>84</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>84</v>
       </c>
@@ -12236,7 +12233,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12254,13 +12251,13 @@
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AM77" t="s" s="2">
-        <v>623</v>
-      </c>
       <c r="AN77" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>84</v>
@@ -12277,10 +12274,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12303,17 +12300,17 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -12362,7 +12359,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -12386,7 +12383,7 @@
         <v>84</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
@@ -12403,10 +12400,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12432,10 +12429,10 @@
         <v>182</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12486,7 +12483,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12507,10 +12504,10 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12527,10 +12524,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12553,16 +12550,16 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12612,7 +12609,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12633,10 +12630,10 @@
         <v>84</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
@@ -12653,10 +12650,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12679,16 +12676,16 @@
         <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12738,7 +12735,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12759,10 +12756,10 @@
         <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12779,10 +12776,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12805,19 +12802,19 @@
         <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12866,7 +12863,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12878,19 +12875,19 @@
         <v>84</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
@@ -12907,10 +12904,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13031,10 +13028,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13157,14 +13154,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -13186,10 +13183,10 @@
         <v>140</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>164</v>
@@ -13244,7 +13241,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -13285,10 +13282,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13314,16 +13311,16 @@
         <v>207</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -13351,11 +13348,11 @@
         <v>212</v>
       </c>
       <c r="Y86" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z86" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA86" t="s" s="2">
         <v>84</v>
       </c>
@@ -13372,7 +13369,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>95</v>
@@ -13390,22 +13387,22 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ86" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="AR86" t="s" s="2">
         <v>84</v>
@@ -13413,10 +13410,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13439,19 +13436,19 @@
         <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="N87" t="s" s="2">
-        <v>675</v>
-      </c>
       <c r="O87" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -13479,11 +13476,11 @@
         <v>212</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>84</v>
       </c>
@@ -13500,7 +13497,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13509,7 +13506,7 @@
         <v>95</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>107</v>
@@ -13518,19 +13515,19 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AO87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP87" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>84</v>
@@ -13541,10 +13538,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13570,16 +13567,16 @@
         <v>207</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="O88" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13607,11 +13604,11 @@
         <v>212</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>84</v>
       </c>
@@ -13628,7 +13625,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13637,7 +13634,7 @@
         <v>95</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>107</v>
@@ -13652,7 +13649,7 @@
         <v>138</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13669,14 +13666,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13698,16 +13695,16 @@
         <v>207</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13735,11 +13732,11 @@
         <v>212</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>84</v>
       </c>
@@ -13756,7 +13753,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13774,19 +13771,19 @@
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP89" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AQ89" t="s" s="2">
         <v>84</v>
@@ -13797,10 +13794,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13826,16 +13823,16 @@
         <v>85</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="N90" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>84</v>
@@ -13884,7 +13881,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13905,10 +13902,10 @@
         <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to MHV-PHR</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -253,12 +259,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: eVault-PHR to MHV-PHR</t>
   </si>
   <si>
     <t>Vital Signs
@@ -288,6 +288,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
+    <t>VitalSignTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -298,9 +301,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>VitalSignTO</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -513,6 +513,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {VitalSignTO.type.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -523,9 +526,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {VitalSignTO.type.id}</t>
   </si>
   <si>
     <t>Observation.identifier:TOid</t>
@@ -838,6 +838,9 @@
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
+    <t>`final` if not `entered-in-error`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -851,9 +854,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -881,13 +881,13 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>`vital-signs`</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`vital-signs`</t>
   </si>
   <si>
     <t>Observation.category:VSCat</t>
@@ -1194,6 +1194,9 @@
     <t>Observations have no value if you don't know who or what they're about.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1204,9 +1207,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -1363,6 +1363,9 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>contained VitalSignTO.observer</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1373,9 +1376,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>contained VitalSignTO.observer</t>
   </si>
   <si>
     <t>Observation.performer.id</t>
@@ -1578,6 +1578,9 @@
 vs-2</t>
   </si>
   <si>
+    <t>VitalSignTO.value1 and VitalSignTO.units</t>
+  </si>
+  <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
@@ -1588,9 +1591,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>VitalSignTO.value1 and VitalSignTO.units</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2484,14 +2484,14 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="56.6484375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="37.41015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="56.6484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.41015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2733,25 +2733,25 @@
         <v>89</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AO2" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AP2" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3367,13 +3367,13 @@
         <v>84</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ7" t="s" s="2">
         <v>84</v>
@@ -3493,13 +3493,13 @@
         <v>84</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ8" t="s" s="2">
         <v>84</v>
@@ -3619,13 +3619,13 @@
         <v>84</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ9" t="s" s="2">
         <v>84</v>
@@ -3747,13 +3747,13 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>84</v>
@@ -3871,13 +3871,13 @@
         <v>160</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>163</v>
@@ -3990,7 +3990,7 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>84</v>
@@ -3999,16 +3999,16 @@
         <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ12" t="s" s="2">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="AR12" t="s" s="2">
         <v>84</v>
@@ -4123,13 +4123,13 @@
         <v>84</v>
       </c>
       <c r="AN13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>84</v>
@@ -4249,13 +4249,13 @@
         <v>84</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>84</v>
@@ -4374,16 +4374,16 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>84</v>
@@ -4502,16 +4502,16 @@
         <v>84</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>84</v>
@@ -4630,16 +4630,16 @@
         <v>84</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>84</v>
@@ -4756,16 +4756,16 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>84</v>
@@ -4880,16 +4880,16 @@
         <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>84</v>
@@ -5006,16 +5006,16 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>84</v>
@@ -5126,22 +5126,22 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>84</v>
@@ -5252,22 +5252,22 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>84</v>
@@ -5381,25 +5381,25 @@
         <v>264</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>269</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -5504,28 +5504,28 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="AO24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5643,16 +5643,16 @@
         <v>84</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="AO25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ25" t="s" s="2">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="AR25" t="s" s="2">
         <v>84</v>
@@ -5767,13 +5767,13 @@
         <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>84</v>
@@ -5893,13 +5893,13 @@
         <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>84</v>
@@ -6018,16 +6018,16 @@
         <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>84</v>
@@ -6145,13 +6145,13 @@
         <v>84</v>
       </c>
       <c r="AN29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>84</v>
@@ -6271,13 +6271,13 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>84</v>
@@ -6396,16 +6396,16 @@
         <v>84</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>84</v>
@@ -6522,16 +6522,16 @@
         <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>84</v>
@@ -6648,16 +6648,16 @@
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>84</v>
@@ -6774,16 +6774,16 @@
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>84</v>
@@ -6902,16 +6902,16 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>84</v>
@@ -7030,16 +7030,16 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>84</v>
@@ -7152,28 +7152,28 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AR37" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -7285,13 +7285,13 @@
         <v>84</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>84</v>
@@ -7411,13 +7411,13 @@
         <v>84</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -7530,25 +7530,25 @@
         <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ40" t="s" s="2">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>84</v>
@@ -7658,28 +7658,28 @@
         <v>107</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AO41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ41" t="s" s="2">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>374</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7789,25 +7789,25 @@
         <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>385</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>385</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -7918,19 +7918,19 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AO43" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AQ43" t="s" s="2">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>84</v>
@@ -8040,25 +8040,25 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AP44" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AQ44" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ44" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR44" t="s" s="2">
         <v>84</v>
@@ -8166,25 +8166,25 @@
         <v>413</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AP45" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AO45" t="s" s="2">
+      <c r="AQ45" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ45" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR45" t="s" s="2">
         <v>84</v>
@@ -8296,28 +8296,28 @@
         <v>413</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AP46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AR46" t="s" s="2">
-        <v>420</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -8428,19 +8428,19 @@
         <v>84</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AP47" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AO47" t="s" s="2">
+      <c r="AQ47" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>84</v>
@@ -8557,13 +8557,13 @@
         <v>435</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AO48" t="s" s="2">
+      <c r="AP48" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>438</v>
@@ -8681,13 +8681,13 @@
         <v>84</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>84</v>
@@ -8807,13 +8807,13 @@
         <v>84</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>84</v>
@@ -8926,7 +8926,7 @@
         <v>146</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>447</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>84</v>
@@ -8944,7 +8944,7 @@
         <v>84</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>84</v>
@@ -9059,13 +9059,13 @@
         <v>84</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>84</v>
@@ -9309,13 +9309,13 @@
         <v>84</v>
       </c>
       <c r="AN54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>84</v>
@@ -9433,13 +9433,13 @@
         <v>84</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>84</v>
@@ -9559,13 +9559,13 @@
         <v>84</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP56" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>84</v>
@@ -9685,13 +9685,13 @@
         <v>84</v>
       </c>
       <c r="AN57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>84</v>
@@ -9811,13 +9811,13 @@
         <v>84</v>
       </c>
       <c r="AN58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>84</v>
@@ -9937,13 +9937,13 @@
         <v>84</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>84</v>
@@ -10056,25 +10056,25 @@
         <v>107</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>84</v>
+        <v>502</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>502</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>505</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>506</v>
+        <v>84</v>
       </c>
       <c r="AR60" t="s" s="2">
         <v>506</v>
@@ -10190,16 +10190,16 @@
         <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AP61" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>84</v>
@@ -10315,25 +10315,25 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AP62" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AO62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP62" t="s" s="2">
+      <c r="AQ62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR62" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR62" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -10446,16 +10446,16 @@
         <v>84</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AP63" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>84</v>
@@ -10569,25 +10569,25 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AP64" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP64" t="s" s="2">
+      <c r="AQ64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -10700,16 +10700,16 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AP65" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ65" t="s" s="2">
         <v>84</v>
@@ -10823,25 +10823,25 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AP66" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AO66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP66" t="s" s="2">
+      <c r="AQ66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR66" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -10949,25 +10949,25 @@
         <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AP67" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AO67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP67" t="s" s="2">
+      <c r="AQ67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR67" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR67" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -11080,16 +11080,16 @@
         <v>84</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AP68" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>84</v>
@@ -11207,13 +11207,13 @@
         <v>84</v>
       </c>
       <c r="AN69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>84</v>
@@ -11333,13 +11333,13 @@
         <v>84</v>
       </c>
       <c r="AN70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>84</v>
@@ -11461,13 +11461,13 @@
         <v>84</v>
       </c>
       <c r="AN71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ71" t="s" s="2">
         <v>84</v>
@@ -11582,16 +11582,16 @@
         <v>84</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AP72" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ72" t="s" s="2">
         <v>84</v>
@@ -11706,16 +11706,16 @@
         <v>84</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AP73" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ73" t="s" s="2">
         <v>84</v>
@@ -11831,19 +11831,19 @@
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AP74" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ74" t="s" s="2">
         <v>84</v>
@@ -11959,19 +11959,19 @@
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AP75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ75" t="s" s="2">
         <v>84</v>
@@ -12091,13 +12091,13 @@
         <v>84</v>
       </c>
       <c r="AN76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ76" t="s" s="2">
         <v>84</v>
@@ -12212,16 +12212,16 @@
         <v>84</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AP77" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ77" t="s" s="2">
         <v>84</v>
@@ -12338,16 +12338,16 @@
         <v>84</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AP78" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>84</v>
@@ -12464,16 +12464,16 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AP79" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ79" t="s" s="2">
         <v>84</v>
@@ -12592,16 +12592,16 @@
         <v>84</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AP80" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>84</v>
@@ -12719,13 +12719,13 @@
         <v>84</v>
       </c>
       <c r="AN81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ81" t="s" s="2">
         <v>84</v>
@@ -12845,13 +12845,13 @@
         <v>84</v>
       </c>
       <c r="AN82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ82" t="s" s="2">
         <v>84</v>
@@ -12973,13 +12973,13 @@
         <v>84</v>
       </c>
       <c r="AN83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ83" t="s" s="2">
         <v>84</v>
@@ -13095,22 +13095,22 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AP84" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AO84" t="s" s="2">
+      <c r="AQ84" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ84" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR84" t="s" s="2">
         <v>84</v>
@@ -13223,16 +13223,16 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="AM85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>505</v>
@@ -13241,7 +13241,7 @@
         <v>84</v>
       </c>
       <c r="AR85" t="s" s="2">
-        <v>84</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -13354,16 +13354,16 @@
         <v>84</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AP86" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ86" t="s" s="2">
         <v>84</v>
@@ -13479,25 +13479,25 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AO87" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AP87" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AO87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP87" t="s" s="2">
+      <c r="AQ87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR87" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AQ87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR87" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="88" hidden="true">
@@ -13610,16 +13610,16 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AP88" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitals.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
